--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -5802,28 +5802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>19938.80401211663</v>
+        <v>20309.69755341269</v>
       </c>
       <c r="AB2" t="n">
-        <v>27281.15128733099</v>
+        <v>27788.62419320052</v>
       </c>
       <c r="AC2" t="n">
-        <v>24677.47649780329</v>
+        <v>25136.51690177929</v>
       </c>
       <c r="AD2" t="n">
-        <v>19938804.01211663</v>
+        <v>20309697.55341269</v>
       </c>
       <c r="AE2" t="n">
-        <v>27281151.287331</v>
+        <v>27788624.19320052</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.648569531909897e-07</v>
+        <v>5.260012856957117e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>84</v>
+        <v>83.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>24677476.49780329</v>
+        <v>25136516.90177929</v>
       </c>
     </row>
     <row r="3">
@@ -5908,28 +5908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6632.089564516322</v>
+        <v>6821.938404670937</v>
       </c>
       <c r="AB3" t="n">
-        <v>9074.317529313572</v>
+        <v>9334.077087952845</v>
       </c>
       <c r="AC3" t="n">
-        <v>8208.277400200182</v>
+        <v>8443.245871137744</v>
       </c>
       <c r="AD3" t="n">
-        <v>6632089.564516322</v>
+        <v>6821938.404670937</v>
       </c>
       <c r="AE3" t="n">
-        <v>9074317.529313572</v>
+        <v>9334077.087952845</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.887203822529638e-07</v>
+        <v>9.929036664412055e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.13333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>8208277.400200183</v>
+        <v>8443245.871137744</v>
       </c>
     </row>
     <row r="4">
@@ -6014,28 +6014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>5090.7245110134</v>
+        <v>5263.221185213925</v>
       </c>
       <c r="AB4" t="n">
-        <v>6965.353862883808</v>
+        <v>7201.37142254116</v>
       </c>
       <c r="AC4" t="n">
-        <v>6300.590266145459</v>
+        <v>6514.082641161831</v>
       </c>
       <c r="AD4" t="n">
-        <v>5090724.5110134</v>
+        <v>5263221.185213925</v>
       </c>
       <c r="AE4" t="n">
-        <v>6965353.862883808</v>
+        <v>7201371.42254116</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.077620750973652e-07</v>
+        <v>1.164521838823333e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.625</v>
       </c>
       <c r="AH4" t="n">
-        <v>6300590.266145459</v>
+        <v>6514082.641161831</v>
       </c>
     </row>
     <row r="5">
@@ -6120,28 +6120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4485.884070442055</v>
+        <v>4641.199349906186</v>
       </c>
       <c r="AB5" t="n">
-        <v>6137.78448841705</v>
+        <v>6350.293705806424</v>
       </c>
       <c r="AC5" t="n">
-        <v>5552.002951276929</v>
+        <v>5744.230587217213</v>
       </c>
       <c r="AD5" t="n">
-        <v>4485884.070442055</v>
+        <v>4641199.349906187</v>
       </c>
       <c r="AE5" t="n">
-        <v>6137784.48841705</v>
+        <v>6350293.705806424</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.709300322072007e-07</v>
+        <v>1.255588834707476e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.89375</v>
       </c>
       <c r="AH5" t="n">
-        <v>5552002.951276929</v>
+        <v>5744230.587217213</v>
       </c>
     </row>
     <row r="6">
@@ -6226,28 +6226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>4159.247109287993</v>
+        <v>4305.84376961062</v>
       </c>
       <c r="AB6" t="n">
-        <v>5690.86538796033</v>
+        <v>5891.445406001968</v>
       </c>
       <c r="AC6" t="n">
-        <v>5147.737182512918</v>
+        <v>5329.174125148478</v>
       </c>
       <c r="AD6" t="n">
-        <v>4159247.109287993</v>
+        <v>4305843.76961062</v>
       </c>
       <c r="AE6" t="n">
-        <v>5690865.38796033</v>
+        <v>5891445.406001968</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.106105964886677e-07</v>
+        <v>1.312794892168186e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.37916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>5147737.182512918</v>
+        <v>5329174.125148478</v>
       </c>
     </row>
     <row r="7">
@@ -6332,28 +6332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3948.715705530944</v>
+        <v>4095.227024998999</v>
       </c>
       <c r="AB7" t="n">
-        <v>5402.8070333499</v>
+        <v>5603.270284269341</v>
       </c>
       <c r="AC7" t="n">
-        <v>4887.170712974077</v>
+        <v>5068.5020325777</v>
       </c>
       <c r="AD7" t="n">
-        <v>3948715.705530944</v>
+        <v>4095227.024998999</v>
       </c>
       <c r="AE7" t="n">
-        <v>5402807.0333499</v>
+        <v>5603270.28426934</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.370156778671439e-07</v>
+        <v>1.350862158346084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.43333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>4887170.712974077</v>
+        <v>5068502.0325777</v>
       </c>
     </row>
     <row r="8">
@@ -6438,28 +6438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3791.037849961951</v>
+        <v>3937.634420776027</v>
       </c>
       <c r="AB8" t="n">
-        <v>5187.06523510435</v>
+        <v>5387.645130676441</v>
       </c>
       <c r="AC8" t="n">
-        <v>4692.019009157576</v>
+        <v>4873.45584101191</v>
       </c>
       <c r="AD8" t="n">
-        <v>3791037.849961951</v>
+        <v>3937634.420776027</v>
       </c>
       <c r="AE8" t="n">
-        <v>5187065.23510435</v>
+        <v>5387645.130676441</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.568559600078776e-07</v>
+        <v>1.379465187076439e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.76458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>4692019.009157576</v>
+        <v>4873455.84101191</v>
       </c>
     </row>
     <row r="9">
@@ -6544,28 +6544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3676.955749568854</v>
+        <v>3814.919042095997</v>
       </c>
       <c r="AB9" t="n">
-        <v>5030.973072399445</v>
+        <v>5219.740535745996</v>
       </c>
       <c r="AC9" t="n">
-        <v>4550.824063384506</v>
+        <v>4721.575824966054</v>
       </c>
       <c r="AD9" t="n">
-        <v>3676955.749568854</v>
+        <v>3814919.042095997</v>
       </c>
       <c r="AE9" t="n">
-        <v>5030973.072399445</v>
+        <v>5219740.535745996</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.718820560409332e-07</v>
+        <v>1.401127775011928e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.27083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>4550824.063384506</v>
+        <v>4721575.824966053</v>
       </c>
     </row>
     <row r="10">
@@ -6650,28 +6650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3578.03568003374</v>
+        <v>3716.084223906904</v>
       </c>
       <c r="AB10" t="n">
-        <v>4895.626269216026</v>
+        <v>5084.510377215227</v>
       </c>
       <c r="AC10" t="n">
-        <v>4428.394569136487</v>
+        <v>4599.251842968746</v>
       </c>
       <c r="AD10" t="n">
-        <v>3578035.680033741</v>
+        <v>3716084.223906904</v>
       </c>
       <c r="AE10" t="n">
-        <v>4895626.269216026</v>
+        <v>5084510.377215227</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.834069258138593e-07</v>
+        <v>1.41774276964206e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.90833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>4428394.569136487</v>
+        <v>4599251.842968746</v>
       </c>
     </row>
     <row r="11">
@@ -6756,28 +6756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3495.300830724607</v>
+        <v>3633.349374597772</v>
       </c>
       <c r="AB11" t="n">
-        <v>4782.424798387317</v>
+        <v>4971.308906386517</v>
       </c>
       <c r="AC11" t="n">
-        <v>4325.996887804412</v>
+        <v>4496.854161636671</v>
       </c>
       <c r="AD11" t="n">
-        <v>3495300.830724607</v>
+        <v>3633349.374597772</v>
       </c>
       <c r="AE11" t="n">
-        <v>4782424.798387317</v>
+        <v>4971308.906386517</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.931811824567206e-07</v>
+        <v>1.431833967619514e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.60208333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>4325996.887804412</v>
+        <v>4496854.161636671</v>
       </c>
     </row>
     <row r="12">
@@ -6862,28 +6862,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3428.085509998034</v>
+        <v>3565.963461670605</v>
       </c>
       <c r="AB12" t="n">
-        <v>4690.457831238545</v>
+        <v>4879.108527462898</v>
       </c>
       <c r="AC12" t="n">
-        <v>4242.807118923873</v>
+        <v>4413.453257473482</v>
       </c>
       <c r="AD12" t="n">
-        <v>3428085.509998034</v>
+        <v>3565963.461670605</v>
       </c>
       <c r="AE12" t="n">
-        <v>4690457.831238545</v>
+        <v>4879108.527462898</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.000767172687001e-06</v>
+        <v>1.442770419781121e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.37083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>4242807.118923873</v>
+        <v>4413453.257473482</v>
       </c>
     </row>
     <row r="13">
@@ -6968,28 +6968,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3360.524399214287</v>
+        <v>3489.939664800519</v>
       </c>
       <c r="AB13" t="n">
-        <v>4598.01773887837</v>
+        <v>4775.089414652032</v>
       </c>
       <c r="AC13" t="n">
-        <v>4159.189379238072</v>
+        <v>4319.361582797547</v>
       </c>
       <c r="AD13" t="n">
-        <v>3360524.399214287</v>
+        <v>3489939.664800519</v>
       </c>
       <c r="AE13" t="n">
-        <v>4598017.73887837</v>
+        <v>4775089.414652032</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.007477856352249e-06</v>
+        <v>1.452444973616387e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.16666666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>4159189.379238072</v>
+        <v>4319361.582797547</v>
       </c>
     </row>
     <row r="14">
@@ -7074,28 +7074,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3295.314186995653</v>
+        <v>3433.277390014246</v>
       </c>
       <c r="AB14" t="n">
-        <v>4508.794249649305</v>
+        <v>4697.561590526308</v>
       </c>
       <c r="AC14" t="n">
-        <v>4078.481254595079</v>
+        <v>4249.232905395401</v>
       </c>
       <c r="AD14" t="n">
-        <v>3295314.186995653</v>
+        <v>3433277.390014246</v>
       </c>
       <c r="AE14" t="n">
-        <v>4508794.249649305</v>
+        <v>4697561.590526308</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.013313233452465e-06</v>
+        <v>1.460857629125315e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.99375</v>
       </c>
       <c r="AH14" t="n">
-        <v>4078481.254595079</v>
+        <v>4249232.905395401</v>
       </c>
     </row>
     <row r="15">
@@ -7180,28 +7180,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3244.018716754087</v>
+        <v>3381.98191977268</v>
       </c>
       <c r="AB15" t="n">
-        <v>4438.609524268358</v>
+        <v>4627.376865145361</v>
       </c>
       <c r="AC15" t="n">
-        <v>4014.994860899611</v>
+        <v>4185.746511699933</v>
       </c>
       <c r="AD15" t="n">
-        <v>3244018.716754087</v>
+        <v>3381981.91977268</v>
       </c>
       <c r="AE15" t="n">
-        <v>4438609.524268358</v>
+        <v>4627376.865145361</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.017835650705132e-06</v>
+        <v>1.467377437144734e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.86041666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>4014994.860899611</v>
+        <v>4185746.511699933</v>
       </c>
     </row>
     <row r="16">
@@ -7286,28 +7286,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3189.278203145463</v>
+        <v>3327.241406164056</v>
       </c>
       <c r="AB16" t="n">
-        <v>4363.711138568014</v>
+        <v>4552.478479445017</v>
       </c>
       <c r="AC16" t="n">
-        <v>3947.244672009967</v>
+        <v>4117.996322810288</v>
       </c>
       <c r="AD16" t="n">
-        <v>3189278.203145463</v>
+        <v>3327241.406164056</v>
       </c>
       <c r="AE16" t="n">
-        <v>4363711.138568014</v>
+        <v>4552478.479445017</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.022066299102788e-06</v>
+        <v>1.473476612388707e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.73541666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>3947244.672009967</v>
+        <v>4117996.322810288</v>
       </c>
     </row>
     <row r="17">
@@ -7392,28 +7392,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>3135.439681548135</v>
+        <v>3264.940198480387</v>
       </c>
       <c r="AB17" t="n">
-        <v>4290.046898130606</v>
+        <v>4467.235218556915</v>
       </c>
       <c r="AC17" t="n">
-        <v>3880.610843291496</v>
+        <v>4040.888559101682</v>
       </c>
       <c r="AD17" t="n">
-        <v>3135439.681548135</v>
+        <v>3264940.198480387</v>
       </c>
       <c r="AE17" t="n">
-        <v>4290046.898130606</v>
+        <v>4467235.218556915</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.025713409790423e-06</v>
+        <v>1.478734522081787e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.62916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>3880610.843291496</v>
+        <v>4040888.559101683</v>
       </c>
     </row>
     <row r="18">
@@ -7498,28 +7498,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>3086.165943021533</v>
+        <v>3215.666459953786</v>
       </c>
       <c r="AB18" t="n">
-        <v>4222.628395274582</v>
+        <v>4399.816715700892</v>
       </c>
       <c r="AC18" t="n">
-        <v>3819.62666772559</v>
+        <v>3979.904383535777</v>
       </c>
       <c r="AD18" t="n">
-        <v>3086165.943021533</v>
+        <v>3215666.459953786</v>
       </c>
       <c r="AE18" t="n">
-        <v>4222628.395274581</v>
+        <v>4399816.715700892</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.029360520478058e-06</v>
+        <v>1.483992431774867e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>29.525</v>
       </c>
       <c r="AH18" t="n">
-        <v>3819626.667725591</v>
+        <v>3979904.383535777</v>
       </c>
     </row>
     <row r="19">
@@ -7604,28 +7604,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>3056.698145545122</v>
+        <v>3186.028070276781</v>
       </c>
       <c r="AB19" t="n">
-        <v>4182.309254739878</v>
+        <v>4359.264163391343</v>
       </c>
       <c r="AC19" t="n">
-        <v>3783.155529375252</v>
+        <v>3943.222109902787</v>
       </c>
       <c r="AD19" t="n">
-        <v>3056698.145545122</v>
+        <v>3186028.070276781</v>
       </c>
       <c r="AE19" t="n">
-        <v>4182309.254739879</v>
+        <v>4359264.163391342</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.031257018035628e-06</v>
+        <v>1.486726544815268e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>29.47291666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>3783155.529375252</v>
+        <v>3943222.109902787</v>
       </c>
     </row>
     <row r="20">
@@ -7710,28 +7710,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>3046.705359121439</v>
+        <v>3176.035283853099</v>
       </c>
       <c r="AB20" t="n">
-        <v>4168.636683504373</v>
+        <v>4345.591592155836</v>
       </c>
       <c r="AC20" t="n">
-        <v>3770.787849148889</v>
+        <v>3930.854429676424</v>
       </c>
       <c r="AD20" t="n">
-        <v>3046705.359121439</v>
+        <v>3176035.283853099</v>
       </c>
       <c r="AE20" t="n">
-        <v>4168636.683504373</v>
+        <v>4345591.592155837</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.032132324600661e-06</v>
+        <v>1.487988443141607e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>30</v>
+        <v>29.44583333333334</v>
       </c>
       <c r="AH20" t="n">
-        <v>3770787.849148889</v>
+        <v>3930854.429676424</v>
       </c>
     </row>
     <row r="21">
@@ -7816,28 +7816,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>3052.555774247029</v>
+        <v>3181.88569897869</v>
       </c>
       <c r="AB21" t="n">
-        <v>4176.641479581305</v>
+        <v>4353.596388232769</v>
       </c>
       <c r="AC21" t="n">
-        <v>3778.028678723041</v>
+        <v>3938.095259250576</v>
       </c>
       <c r="AD21" t="n">
-        <v>3052555.774247029</v>
+        <v>3181885.698978689</v>
       </c>
       <c r="AE21" t="n">
-        <v>4176641.479581305</v>
+        <v>4353596.388232769</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.032715862310682e-06</v>
+        <v>1.4888297086925e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>30</v>
+        <v>29.43125</v>
       </c>
       <c r="AH21" t="n">
-        <v>3778028.678723041</v>
+        <v>3938095.259250576</v>
       </c>
     </row>
     <row r="22">
@@ -7922,28 +7922,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>3064.449824670534</v>
+        <v>3193.779749402194</v>
       </c>
       <c r="AB22" t="n">
-        <v>4192.915444099216</v>
+        <v>4369.870352750679</v>
       </c>
       <c r="AC22" t="n">
-        <v>3792.749478908014</v>
+        <v>3952.816059435549</v>
       </c>
       <c r="AD22" t="n">
-        <v>3064449.824670534</v>
+        <v>3193779.749402194</v>
       </c>
       <c r="AE22" t="n">
-        <v>4192915.444099216</v>
+        <v>4369870.352750679</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.032715862310682e-06</v>
+        <v>1.4888297086925e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>30</v>
+        <v>29.43125</v>
       </c>
       <c r="AH22" t="n">
-        <v>3792749.478908014</v>
+        <v>3952816.059435549</v>
       </c>
     </row>
     <row r="23">
@@ -8028,28 +8028,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>3078.088276797582</v>
+        <v>3207.418201529243</v>
       </c>
       <c r="AB23" t="n">
-        <v>4211.576175985487</v>
+        <v>4388.531084636951</v>
       </c>
       <c r="AC23" t="n">
-        <v>3809.629256733561</v>
+        <v>3969.695837261096</v>
       </c>
       <c r="AD23" t="n">
-        <v>3078088.276797582</v>
+        <v>3207418.201529243</v>
       </c>
       <c r="AE23" t="n">
-        <v>4211576.175985487</v>
+        <v>4388531.084636951</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.032569977883177e-06</v>
+        <v>1.488619392304777e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>30</v>
+        <v>29.43333333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>3809629.256733561</v>
+        <v>3969695.837261096</v>
       </c>
     </row>
   </sheetData>
@@ -8325,28 +8325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>12005.51375989641</v>
+        <v>12291.53547905737</v>
       </c>
       <c r="AB2" t="n">
-        <v>16426.47357217777</v>
+        <v>16817.8211067215</v>
       </c>
       <c r="AC2" t="n">
-        <v>14858.75398914896</v>
+        <v>15212.75186425554</v>
       </c>
       <c r="AD2" t="n">
-        <v>12005513.75989641</v>
+        <v>12291535.47905738</v>
       </c>
       <c r="AE2" t="n">
-        <v>16426473.57217777</v>
+        <v>16817821.1067215</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.79760054091092e-07</v>
+        <v>7.023506711184978e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.54375</v>
       </c>
       <c r="AH2" t="n">
-        <v>14858753.98914896</v>
+        <v>15212751.86425554</v>
       </c>
     </row>
     <row r="3">
@@ -8431,28 +8431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5201.627766641742</v>
+        <v>5378.137728241642</v>
       </c>
       <c r="AB3" t="n">
-        <v>7117.096589940844</v>
+        <v>7358.605306471763</v>
       </c>
       <c r="AC3" t="n">
-        <v>6437.850880304421</v>
+        <v>6656.310343889233</v>
       </c>
       <c r="AD3" t="n">
-        <v>5201627.766641742</v>
+        <v>5378137.728241642</v>
       </c>
       <c r="AE3" t="n">
-        <v>7117096.589940844</v>
+        <v>7358605.306471763</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.773652213347641e-07</v>
+        <v>1.138033440368475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.44791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>6437850.880304421</v>
+        <v>6656310.343889233</v>
       </c>
     </row>
     <row r="4">
@@ -8537,28 +8537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4169.216320234669</v>
+        <v>4320.729944224724</v>
       </c>
       <c r="AB4" t="n">
-        <v>5704.50570218812</v>
+        <v>5911.813326840662</v>
       </c>
       <c r="AC4" t="n">
-        <v>5160.075684295109</v>
+        <v>5347.598160208881</v>
       </c>
       <c r="AD4" t="n">
-        <v>4169216.320234669</v>
+        <v>4320729.944224724</v>
       </c>
       <c r="AE4" t="n">
-        <v>5704505.70218812</v>
+        <v>5911813.326840661</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.848169855728444e-07</v>
+        <v>1.295338780990171e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.53333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5160075.684295109</v>
+        <v>5347598.160208882</v>
       </c>
     </row>
     <row r="5">
@@ -8643,28 +8643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3739.64507189284</v>
+        <v>3882.5706801273</v>
       </c>
       <c r="AB5" t="n">
-        <v>5116.74736886084</v>
+        <v>5312.304491480058</v>
       </c>
       <c r="AC5" t="n">
-        <v>4628.412181376603</v>
+        <v>4805.305606679181</v>
       </c>
       <c r="AD5" t="n">
-        <v>3739645.07189284</v>
+        <v>3882570.6801273</v>
       </c>
       <c r="AE5" t="n">
-        <v>5116747.36886084</v>
+        <v>5312304.491480058</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.408065986800463e-07</v>
+        <v>1.377305468308498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.41666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>4628412.181376603</v>
+        <v>4805305.606679182</v>
       </c>
     </row>
     <row r="6">
@@ -8749,28 +8749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3492.021773388727</v>
+        <v>3626.615298922755</v>
       </c>
       <c r="AB6" t="n">
-        <v>4777.938247478564</v>
+        <v>4962.095046961508</v>
       </c>
       <c r="AC6" t="n">
-        <v>4321.938527017478</v>
+        <v>4488.519660023452</v>
       </c>
       <c r="AD6" t="n">
-        <v>3492021.773388727</v>
+        <v>3626615.298922755</v>
       </c>
       <c r="AE6" t="n">
-        <v>4777938.247478564</v>
+        <v>4962095.046961508</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.758189712969489e-07</v>
+        <v>1.428562264690848e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.22083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4321938.527017478</v>
+        <v>4488519.660023452</v>
       </c>
     </row>
     <row r="7">
@@ -8855,28 +8855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3323.628956148857</v>
+        <v>3458.137140828313</v>
       </c>
       <c r="AB7" t="n">
-        <v>4547.535765964175</v>
+        <v>4731.57579832492</v>
       </c>
       <c r="AC7" t="n">
-        <v>4113.525334966916</v>
+        <v>4280.000844940952</v>
       </c>
       <c r="AD7" t="n">
-        <v>3323628.956148857</v>
+        <v>3458137.140828313</v>
       </c>
       <c r="AE7" t="n">
-        <v>4547535.765964175</v>
+        <v>4731575.798324919</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.99210858174621e-07</v>
+        <v>1.46280710710147e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.46458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4113525.334966916</v>
+        <v>4280000.844940951</v>
       </c>
     </row>
     <row r="8">
@@ -8961,28 +8961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3193.154807719448</v>
+        <v>3327.748243744925</v>
       </c>
       <c r="AB8" t="n">
-        <v>4369.015279969864</v>
+        <v>4553.171956983258</v>
       </c>
       <c r="AC8" t="n">
-        <v>3952.042593600834</v>
+        <v>4118.623615825582</v>
       </c>
       <c r="AD8" t="n">
-        <v>3193154.807719448</v>
+        <v>3327748.243744925</v>
       </c>
       <c r="AE8" t="n">
-        <v>4369015.279969865</v>
+        <v>4553171.956983259</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.01626429828544e-06</v>
+        <v>1.487772701891149e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.93958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3952042.593600834</v>
+        <v>4118623.615825582</v>
       </c>
     </row>
     <row r="9">
@@ -9067,28 +9067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3092.401806780293</v>
+        <v>3226.99524280577</v>
       </c>
       <c r="AB9" t="n">
-        <v>4231.160579176209</v>
+        <v>4415.317256189604</v>
       </c>
       <c r="AC9" t="n">
-        <v>3827.344551970642</v>
+        <v>3993.925574195391</v>
       </c>
       <c r="AD9" t="n">
-        <v>3092401.806780293</v>
+        <v>3226995.24280577</v>
       </c>
       <c r="AE9" t="n">
-        <v>4231160.579176209</v>
+        <v>4415317.256189604</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.029092107218357e-06</v>
+        <v>1.5065521316002e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.55</v>
       </c>
       <c r="AH9" t="n">
-        <v>3827344.551970643</v>
+        <v>3993925.574195391</v>
       </c>
     </row>
     <row r="10">
@@ -9173,28 +9173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3004.817054569389</v>
+        <v>3130.993156548414</v>
       </c>
       <c r="AB10" t="n">
-        <v>4111.323257234682</v>
+        <v>4283.96296645915</v>
       </c>
       <c r="AC10" t="n">
-        <v>3718.944335842481</v>
+        <v>3875.107553519912</v>
       </c>
       <c r="AD10" t="n">
-        <v>3004817.054569389</v>
+        <v>3130993.156548414</v>
       </c>
       <c r="AE10" t="n">
-        <v>4111323.257234682</v>
+        <v>4283962.96645915</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.039656185163112e-06</v>
+        <v>1.522017544301771e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.24166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>3718944.335842481</v>
+        <v>3875107.553519913</v>
       </c>
     </row>
     <row r="11">
@@ -9279,28 +9279,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2907.809578672404</v>
+        <v>3042.31767384331</v>
       </c>
       <c r="AB11" t="n">
-        <v>3978.593349044627</v>
+        <v>4162.633258935823</v>
       </c>
       <c r="AC11" t="n">
-        <v>3598.881983802493</v>
+        <v>3765.357382995302</v>
       </c>
       <c r="AD11" t="n">
-        <v>2907809.578672404</v>
+        <v>3042317.67384331</v>
       </c>
       <c r="AE11" t="n">
-        <v>3978593.349044627</v>
+        <v>4162633.258935823</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.048409278317337e-06</v>
+        <v>1.534831743397359e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>3598881.983802493</v>
+        <v>3765357.382995302</v>
       </c>
     </row>
     <row r="12">
@@ -9385,28 +9385,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2848.141144818437</v>
+        <v>2982.649239989343</v>
       </c>
       <c r="AB12" t="n">
-        <v>3896.952365460107</v>
+        <v>4080.992275351302</v>
       </c>
       <c r="AC12" t="n">
-        <v>3525.032701107443</v>
+        <v>3691.508100300252</v>
       </c>
       <c r="AD12" t="n">
-        <v>2848141.144818437</v>
+        <v>2982649.239989343</v>
       </c>
       <c r="AE12" t="n">
-        <v>3896952.365460107</v>
+        <v>4080992.275351302</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.054294978886558e-06</v>
+        <v>1.543448187616806e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.82083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>3525032.701107443</v>
+        <v>3691508.100300252</v>
       </c>
     </row>
     <row r="13">
@@ -9491,28 +9491,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2777.533273412482</v>
+        <v>2903.794626737529</v>
       </c>
       <c r="AB13" t="n">
-        <v>3800.343560803034</v>
+        <v>3973.09991468015</v>
       </c>
       <c r="AC13" t="n">
-        <v>3437.644105175536</v>
+        <v>3593.912835103679</v>
       </c>
       <c r="AD13" t="n">
-        <v>2777533.273412482</v>
+        <v>2903794.626737528</v>
       </c>
       <c r="AE13" t="n">
-        <v>3800343.560803033</v>
+        <v>3973099.91468015</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.059878848657357e-06</v>
+        <v>1.551622762901922e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.6625</v>
       </c>
       <c r="AH13" t="n">
-        <v>3437644.105175536</v>
+        <v>3593912.835103679</v>
       </c>
     </row>
     <row r="14">
@@ -9597,28 +9597,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2739.293972077905</v>
+        <v>2865.555325402951</v>
       </c>
       <c r="AB14" t="n">
-        <v>3748.02286171815</v>
+        <v>3920.779215595267</v>
       </c>
       <c r="AC14" t="n">
-        <v>3390.316820178753</v>
+        <v>3546.585550106896</v>
       </c>
       <c r="AD14" t="n">
-        <v>2739293.972077905</v>
+        <v>2865555.325402951</v>
       </c>
       <c r="AE14" t="n">
-        <v>3748022.86171815</v>
+        <v>3920779.215595267</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.063349902839206e-06</v>
+        <v>1.556704255646724e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.56666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>3390316.820178753</v>
+        <v>3546585.550106896</v>
       </c>
     </row>
     <row r="15">
@@ -9703,28 +9703,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2744.566043815462</v>
+        <v>2870.827397140507</v>
       </c>
       <c r="AB15" t="n">
-        <v>3755.236342856865</v>
+        <v>3927.992696733981</v>
       </c>
       <c r="AC15" t="n">
-        <v>3396.841856801773</v>
+        <v>3553.110586729916</v>
       </c>
       <c r="AD15" t="n">
-        <v>2744566.043815462</v>
+        <v>2870827.397140508</v>
       </c>
       <c r="AE15" t="n">
-        <v>3755236.342856864</v>
+        <v>3927992.696733981</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.063953564436049e-06</v>
+        <v>1.557587993515385e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.55208333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>3396841.856801773</v>
+        <v>3553110.586729916</v>
       </c>
     </row>
     <row r="16">
@@ -9809,28 +9809,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2757.518347699124</v>
+        <v>2883.77970102417</v>
       </c>
       <c r="AB16" t="n">
-        <v>3772.958256445811</v>
+        <v>3945.714610322928</v>
       </c>
       <c r="AC16" t="n">
-        <v>3412.872415830652</v>
+        <v>3569.141145758796</v>
       </c>
       <c r="AD16" t="n">
-        <v>2757518.347699124</v>
+        <v>2883779.70102417</v>
       </c>
       <c r="AE16" t="n">
-        <v>3772958.256445812</v>
+        <v>3945714.610322929</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.063802649036838e-06</v>
+        <v>1.55736705904822e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.55208333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>3412872.415830652</v>
+        <v>3569141.145758796</v>
       </c>
     </row>
     <row r="17">
@@ -9915,28 +9915,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2769.957339632853</v>
+        <v>2896.218692957898</v>
       </c>
       <c r="AB17" t="n">
-        <v>3789.977833979134</v>
+        <v>3962.734187856251</v>
       </c>
       <c r="AC17" t="n">
-        <v>3428.267668771321</v>
+        <v>3584.536398699464</v>
       </c>
       <c r="AD17" t="n">
-        <v>2769957.339632853</v>
+        <v>2896218.692957899</v>
       </c>
       <c r="AE17" t="n">
-        <v>3789977.833979134</v>
+        <v>3962734.18785625</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.063802649036838e-06</v>
+        <v>1.55736705904822e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.55416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>3428267.66877132</v>
+        <v>3584536.398699464</v>
       </c>
     </row>
   </sheetData>
@@ -10212,28 +10212,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3889.310548327667</v>
+        <v>4060.020218771801</v>
       </c>
       <c r="AB2" t="n">
-        <v>5321.5262764938</v>
+        <v>5555.098778774613</v>
       </c>
       <c r="AC2" t="n">
-        <v>4813.647277474068</v>
+        <v>5024.927947958257</v>
       </c>
       <c r="AD2" t="n">
-        <v>3889310.548327667</v>
+        <v>4060020.218771801</v>
       </c>
       <c r="AE2" t="n">
-        <v>5321526.2764938</v>
+        <v>5555098.778774614</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.387984101797153e-07</v>
+        <v>1.297724675880949e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.825</v>
       </c>
       <c r="AH2" t="n">
-        <v>4813647.277474068</v>
+        <v>5024927.947958257</v>
       </c>
     </row>
     <row r="3">
@@ -10318,28 +10318,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2559.327427584812</v>
+        <v>2691.200743866297</v>
       </c>
       <c r="AB3" t="n">
-        <v>3501.784695979089</v>
+        <v>3682.219585155538</v>
       </c>
       <c r="AC3" t="n">
-        <v>3167.5792793804</v>
+        <v>3330.793715975801</v>
       </c>
       <c r="AD3" t="n">
-        <v>2559327.427584812</v>
+        <v>2691200.743866297</v>
       </c>
       <c r="AE3" t="n">
-        <v>3501784.695979089</v>
+        <v>3682219.585155538</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.048624312425033e-06</v>
+        <v>1.622351246077227e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.45833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3167579.2793804</v>
+        <v>3330793.715975801</v>
       </c>
     </row>
     <row r="4">
@@ -10424,28 +10424,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2192.614766633304</v>
+        <v>2316.72079418055</v>
       </c>
       <c r="AB4" t="n">
-        <v>3000.032255044407</v>
+        <v>3169.839597106076</v>
       </c>
       <c r="AC4" t="n">
-        <v>2713.713387194571</v>
+        <v>2867.314554855968</v>
       </c>
       <c r="AD4" t="n">
-        <v>2192614.766633304</v>
+        <v>2316720.79418055</v>
       </c>
       <c r="AE4" t="n">
-        <v>3000032.255044407</v>
+        <v>3169839.597106076</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.121204540248252e-06</v>
+        <v>1.734641817308845e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.28958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2713713.387194571</v>
+        <v>2867314.554855968</v>
       </c>
     </row>
     <row r="5">
@@ -10530,28 +10530,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2035.733067446789</v>
+        <v>2159.924346340055</v>
       </c>
       <c r="AB5" t="n">
-        <v>2785.379793085147</v>
+        <v>2955.303779799454</v>
       </c>
       <c r="AC5" t="n">
-        <v>2519.547054938192</v>
+        <v>2673.253734850299</v>
       </c>
       <c r="AD5" t="n">
-        <v>2035733.067446789</v>
+        <v>2159924.346340055</v>
       </c>
       <c r="AE5" t="n">
-        <v>2785379.793085147</v>
+        <v>2955303.779799454</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.148990474333708e-06</v>
+        <v>1.777630087037887e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2519547.054938192</v>
+        <v>2673253.734850299</v>
       </c>
     </row>
     <row r="6">
@@ -10636,28 +10636,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2040.282404036945</v>
+        <v>2164.303090729618</v>
       </c>
       <c r="AB6" t="n">
-        <v>2791.604396110362</v>
+        <v>2961.294971049823</v>
       </c>
       <c r="AC6" t="n">
-        <v>2525.177590586966</v>
+        <v>2678.673135216422</v>
       </c>
       <c r="AD6" t="n">
-        <v>2040282.404036945</v>
+        <v>2164303.090729618</v>
       </c>
       <c r="AE6" t="n">
-        <v>2791604.396110362</v>
+        <v>2961294.971049823</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.150337671137851e-06</v>
+        <v>1.779714366782325e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.49791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2525177.590586966</v>
+        <v>2678673.135216422</v>
       </c>
     </row>
     <row r="7">
@@ -10742,28 +10742,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2053.0717324115</v>
+        <v>2177.092419104174</v>
       </c>
       <c r="AB7" t="n">
-        <v>2809.103319417776</v>
+        <v>2978.793894357236</v>
       </c>
       <c r="AC7" t="n">
-        <v>2541.006441213814</v>
+        <v>2694.50198584327</v>
       </c>
       <c r="AD7" t="n">
-        <v>2053071.7324115</v>
+        <v>2177092.419104174</v>
       </c>
       <c r="AE7" t="n">
-        <v>2809103.319417776</v>
+        <v>2978793.894357236</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.151011269539922e-06</v>
+        <v>1.780756506654545e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.48125</v>
       </c>
       <c r="AH7" t="n">
-        <v>2541006.441213814</v>
+        <v>2694501.98584327</v>
       </c>
     </row>
   </sheetData>
@@ -11039,28 +11039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5840.742405771883</v>
+        <v>6041.023110510333</v>
       </c>
       <c r="AB2" t="n">
-        <v>7991.561434946675</v>
+        <v>8265.594330930937</v>
       </c>
       <c r="AC2" t="n">
-        <v>7228.858027821982</v>
+        <v>7476.737608821079</v>
       </c>
       <c r="AD2" t="n">
-        <v>5840742.405771882</v>
+        <v>6041023.110510333</v>
       </c>
       <c r="AE2" t="n">
-        <v>7991561.434946675</v>
+        <v>8265594.330930936</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.949964183673421e-07</v>
+        <v>1.05034389516557e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.29166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>7228858.027821981</v>
+        <v>7476737.608821078</v>
       </c>
     </row>
     <row r="3">
@@ -11145,28 +11145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3402.39669327455</v>
+        <v>3554.633856288553</v>
       </c>
       <c r="AB3" t="n">
-        <v>4655.309258886863</v>
+        <v>4863.60686155226</v>
       </c>
       <c r="AC3" t="n">
-        <v>4211.013076986107</v>
+        <v>4399.431048800631</v>
       </c>
       <c r="AD3" t="n">
-        <v>3402396.69327455</v>
+        <v>3554633.856288554</v>
       </c>
       <c r="AE3" t="n">
-        <v>4655309.258886863</v>
+        <v>4863606.86155226</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.406778133627516e-07</v>
+        <v>1.421640705579918e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>36</v>
+        <v>35.68125</v>
       </c>
       <c r="AH3" t="n">
-        <v>4211013.076986107</v>
+        <v>4399431.048800631</v>
       </c>
     </row>
     <row r="4">
@@ -11251,28 +11251,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2877.499986475947</v>
+        <v>3013.779559321033</v>
       </c>
       <c r="AB4" t="n">
-        <v>3937.122427836596</v>
+        <v>4123.586151633685</v>
       </c>
       <c r="AC4" t="n">
-        <v>3561.368989109755</v>
+        <v>3730.036876811123</v>
       </c>
       <c r="AD4" t="n">
-        <v>2877499.986475946</v>
+        <v>3013779.559321033</v>
       </c>
       <c r="AE4" t="n">
-        <v>3937122.427836596</v>
+        <v>4123586.151633685</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.026384372141478e-06</v>
+        <v>1.551168510917907e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.69791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>3561368.989109755</v>
+        <v>3730036.876811123</v>
       </c>
     </row>
     <row r="5">
@@ -11357,28 +11357,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2623.154674893018</v>
+        <v>2751.327530880339</v>
       </c>
       <c r="AB5" t="n">
-        <v>3589.115951605599</v>
+        <v>3764.487707754787</v>
       </c>
       <c r="AC5" t="n">
-        <v>3246.575762540101</v>
+        <v>3405.210284418209</v>
       </c>
       <c r="AD5" t="n">
-        <v>2623154.674893018</v>
+        <v>2751327.530880339</v>
       </c>
       <c r="AE5" t="n">
-        <v>3589115.951605599</v>
+        <v>3764487.707754787</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.070043164301318e-06</v>
+        <v>1.617149780178423e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.36458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3246575.762540101</v>
+        <v>3405210.284418209</v>
       </c>
     </row>
     <row r="6">
@@ -11463,28 +11463,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2450.948865042497</v>
+        <v>2579.206972375839</v>
       </c>
       <c r="AB6" t="n">
-        <v>3353.496365383954</v>
+        <v>3528.984766185792</v>
       </c>
       <c r="AC6" t="n">
-        <v>3033.443378933292</v>
+        <v>3192.183413062114</v>
       </c>
       <c r="AD6" t="n">
-        <v>2450948.865042497</v>
+        <v>2579206.972375839</v>
       </c>
       <c r="AE6" t="n">
-        <v>3353496.365383954</v>
+        <v>3528984.766185792</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.096947290835242e-06</v>
+        <v>1.657809824335273e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.59583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3033443.378933292</v>
+        <v>3192183.413062114</v>
       </c>
     </row>
     <row r="7">
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2322.487115185047</v>
+        <v>2442.723846515195</v>
       </c>
       <c r="AB7" t="n">
-        <v>3177.729331896558</v>
+        <v>3342.242532172691</v>
       </c>
       <c r="AC7" t="n">
-        <v>2874.451304431358</v>
+        <v>3023.263595768859</v>
       </c>
       <c r="AD7" t="n">
-        <v>2322487.115185047</v>
+        <v>2442723.846515195</v>
       </c>
       <c r="AE7" t="n">
-        <v>3177729.331896557</v>
+        <v>3342242.532172692</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.11466857178573e-06</v>
+        <v>1.684591889348767e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.11041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2874451.304431358</v>
+        <v>3023263.595768859</v>
       </c>
     </row>
     <row r="8">
@@ -11675,28 +11675,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2282.258135303719</v>
+        <v>2410.430901782489</v>
       </c>
       <c r="AB8" t="n">
-        <v>3122.686266845586</v>
+        <v>3298.057900525227</v>
       </c>
       <c r="AC8" t="n">
-        <v>2824.661472255428</v>
+        <v>2983.29588335231</v>
       </c>
       <c r="AD8" t="n">
-        <v>2282258.135303719</v>
+        <v>2410430.901782489</v>
       </c>
       <c r="AE8" t="n">
-        <v>3122686.266845587</v>
+        <v>3298057.900525227</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.1191794433004e-06</v>
+        <v>1.691409142261293e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.98958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2824661.472255428</v>
+        <v>2983295.88335231</v>
       </c>
     </row>
     <row r="9">
@@ -11781,28 +11781,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2291.955453926905</v>
+        <v>2420.128220405676</v>
       </c>
       <c r="AB9" t="n">
-        <v>3135.954566001334</v>
+        <v>3311.326199680975</v>
       </c>
       <c r="AC9" t="n">
-        <v>2836.663463561925</v>
+        <v>2995.297874658808</v>
       </c>
       <c r="AD9" t="n">
-        <v>2291955.453926905</v>
+        <v>2420128.220405675</v>
       </c>
       <c r="AE9" t="n">
-        <v>3135954.566001334</v>
+        <v>3311326.199680975</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.119662750962686e-06</v>
+        <v>1.692139562216206e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>29.975</v>
       </c>
       <c r="AH9" t="n">
-        <v>2836663.463561925</v>
+        <v>2995297.874658808</v>
       </c>
     </row>
   </sheetData>
@@ -12078,28 +12078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2777.992088072453</v>
+        <v>2928.997639106133</v>
       </c>
       <c r="AB2" t="n">
-        <v>3800.97133126228</v>
+        <v>4007.583788081311</v>
       </c>
       <c r="AC2" t="n">
-        <v>3438.211962103233</v>
+        <v>3625.105616025852</v>
       </c>
       <c r="AD2" t="n">
-        <v>2777992.088072453</v>
+        <v>2928997.639106133</v>
       </c>
       <c r="AE2" t="n">
-        <v>3800971.33126228</v>
+        <v>4007583.788081311</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.633335280723805e-07</v>
+        <v>1.522537071812697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.825</v>
       </c>
       <c r="AH2" t="n">
-        <v>3438211.962103233</v>
+        <v>3625105.616025852</v>
       </c>
     </row>
     <row r="3">
@@ -12184,28 +12184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1945.066858118854</v>
+        <v>2073.395974241111</v>
       </c>
       <c r="AB3" t="n">
-        <v>2661.326285571809</v>
+        <v>2836.911843731317</v>
       </c>
       <c r="AC3" t="n">
-        <v>2407.333040071736</v>
+        <v>2566.160958996379</v>
       </c>
       <c r="AD3" t="n">
-        <v>1945066.858118854</v>
+        <v>2073395.97424111</v>
       </c>
       <c r="AE3" t="n">
-        <v>2661326.285571809</v>
+        <v>2836911.843731317</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142253317327654e-06</v>
+        <v>1.805317649965274e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.89791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2407333.040071737</v>
+        <v>2566160.958996379</v>
       </c>
     </row>
     <row r="4">
@@ -12290,28 +12290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1845.673386060248</v>
+        <v>1966.443780053914</v>
       </c>
       <c r="AB4" t="n">
-        <v>2525.331752170709</v>
+        <v>2690.575133246594</v>
       </c>
       <c r="AC4" t="n">
-        <v>2284.317634068912</v>
+        <v>2433.790418775456</v>
       </c>
       <c r="AD4" t="n">
-        <v>1845673.386060248</v>
+        <v>1966443.780053914</v>
       </c>
       <c r="AE4" t="n">
-        <v>2525331.752170709</v>
+        <v>2690575.133246594</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.167438507604056e-06</v>
+        <v>1.845122540731619e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.2125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2284317.634068911</v>
+        <v>2433790.418775456</v>
       </c>
     </row>
     <row r="5">
@@ -12396,28 +12396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1862.368142021967</v>
+        <v>1983.138536015633</v>
       </c>
       <c r="AB5" t="n">
-        <v>2548.174253798186</v>
+        <v>2713.417634874071</v>
       </c>
       <c r="AC5" t="n">
-        <v>2304.980079400714</v>
+        <v>2454.452864107257</v>
       </c>
       <c r="AD5" t="n">
-        <v>1862368.142021967</v>
+        <v>1983138.536015633</v>
       </c>
       <c r="AE5" t="n">
-        <v>2548174.253798186</v>
+        <v>2713417.634874071</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.167263610449359e-06</v>
+        <v>1.844846117879075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.21458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2304980.079400714</v>
+        <v>2454452.864107258</v>
       </c>
     </row>
   </sheetData>
@@ -12693,28 +12693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>13564.47193560717</v>
+        <v>13869.20123718529</v>
       </c>
       <c r="AB2" t="n">
-        <v>18559.50892456607</v>
+        <v>18976.45299869325</v>
       </c>
       <c r="AC2" t="n">
-        <v>16788.21544123916</v>
+        <v>17165.36695811631</v>
       </c>
       <c r="AD2" t="n">
-        <v>13564471.93560717</v>
+        <v>13869201.23718529</v>
       </c>
       <c r="AE2" t="n">
-        <v>18559508.92456607</v>
+        <v>18976452.99869325</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.494270097084179e-07</v>
+        <v>6.552134753190416e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.33541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>16788215.44123916</v>
+        <v>17165366.95811631</v>
       </c>
     </row>
     <row r="3">
@@ -12799,28 +12799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5543.463388710317</v>
+        <v>5721.250632210972</v>
       </c>
       <c r="AB3" t="n">
-        <v>7584.811168778396</v>
+        <v>7828.067518755628</v>
       </c>
       <c r="AC3" t="n">
-        <v>6860.927436179234</v>
+        <v>7080.967741527061</v>
       </c>
       <c r="AD3" t="n">
-        <v>5543463.388710317</v>
+        <v>5721250.632210972</v>
       </c>
       <c r="AE3" t="n">
-        <v>7584811.168778396</v>
+        <v>7828067.518755628</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.53631514782269e-07</v>
+        <v>1.0987090522904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>6860927.436179234</v>
+        <v>7080967.741527061</v>
       </c>
     </row>
     <row r="4">
@@ -12905,28 +12905,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4395.17552507405</v>
+        <v>4547.625561471955</v>
       </c>
       <c r="AB4" t="n">
-        <v>6013.673054865946</v>
+        <v>6222.261920286508</v>
       </c>
       <c r="AC4" t="n">
-        <v>5439.736538752454</v>
+        <v>5628.417975613581</v>
       </c>
       <c r="AD4" t="n">
-        <v>4395175.52507405</v>
+        <v>4547625.561471955</v>
       </c>
       <c r="AE4" t="n">
-        <v>6013673.054865946</v>
+        <v>6222261.920286508</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.647543993790592e-07</v>
+        <v>1.26071358212802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.03333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>5439736.538752454</v>
+        <v>5628417.975613581</v>
       </c>
     </row>
     <row r="5">
@@ -13011,28 +13011,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3922.0587085696</v>
+        <v>4074.423314604383</v>
       </c>
       <c r="AB5" t="n">
-        <v>5366.33375408368</v>
+        <v>5574.805729912496</v>
       </c>
       <c r="AC5" t="n">
-        <v>4854.178392290458</v>
+        <v>5042.75409533842</v>
       </c>
       <c r="AD5" t="n">
-        <v>3922058.7085696</v>
+        <v>4074423.314604383</v>
       </c>
       <c r="AE5" t="n">
-        <v>5366333.75408368</v>
+        <v>5574805.729912496</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.223348981270595e-07</v>
+        <v>1.344659401761241e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>4854178.392290458</v>
+        <v>5042754.09533842</v>
       </c>
     </row>
     <row r="6">
@@ -13117,28 +13117,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3658.431573291622</v>
+        <v>3802.407337528537</v>
       </c>
       <c r="AB6" t="n">
-        <v>5005.627477187957</v>
+        <v>5202.621469579347</v>
       </c>
       <c r="AC6" t="n">
-        <v>4527.897416207237</v>
+        <v>4706.090578447591</v>
       </c>
       <c r="AD6" t="n">
-        <v>3658431.573291623</v>
+        <v>3802407.337528537</v>
       </c>
       <c r="AE6" t="n">
-        <v>5005627.477187957</v>
+        <v>5202621.469579346</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.583787947459376e-07</v>
+        <v>1.397207304440739e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.5125</v>
       </c>
       <c r="AH6" t="n">
-        <v>4527897.416207237</v>
+        <v>4706090.578447591</v>
       </c>
     </row>
     <row r="7">
@@ -13223,28 +13223,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3474.244125076246</v>
+        <v>3618.134548458589</v>
       </c>
       <c r="AB7" t="n">
-        <v>4753.614084762937</v>
+        <v>4950.491310032129</v>
       </c>
       <c r="AC7" t="n">
-        <v>4299.935828252253</v>
+        <v>4478.023367460668</v>
       </c>
       <c r="AD7" t="n">
-        <v>3474244.125076246</v>
+        <v>3618134.548458589</v>
       </c>
       <c r="AE7" t="n">
-        <v>4753614.084762936</v>
+        <v>4950491.310032129</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.832057110892311e-07</v>
+        <v>1.433402125373504e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.68958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>4299935.828252253</v>
+        <v>4478023.367460668</v>
       </c>
     </row>
     <row r="8">
@@ -13329,28 +13329,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3349.399601670162</v>
+        <v>3484.815931908615</v>
       </c>
       <c r="AB8" t="n">
-        <v>4582.796300087067</v>
+        <v>4768.078897266186</v>
       </c>
       <c r="AC8" t="n">
-        <v>4145.420653201589</v>
+        <v>4313.020139351683</v>
       </c>
       <c r="AD8" t="n">
-        <v>3349399.601670162</v>
+        <v>3484815.931908615</v>
       </c>
       <c r="AE8" t="n">
-        <v>4582796.300087066</v>
+        <v>4768078.897266186</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.000554640582135e-06</v>
+        <v>1.458694891808449e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.14375</v>
       </c>
       <c r="AH8" t="n">
-        <v>4145420.653201588</v>
+        <v>4313020.139351683</v>
       </c>
     </row>
     <row r="9">
@@ -13435,28 +13435,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3239.258851779618</v>
+        <v>3374.760433364092</v>
       </c>
       <c r="AB9" t="n">
-        <v>4432.096867019867</v>
+        <v>4617.496108851634</v>
       </c>
       <c r="AC9" t="n">
-        <v>4009.103762518344</v>
+        <v>4176.808760919152</v>
       </c>
       <c r="AD9" t="n">
-        <v>3239258.851779618</v>
+        <v>3374760.433364091</v>
       </c>
       <c r="AE9" t="n">
-        <v>4432096.867019868</v>
+        <v>4617496.108851634</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.014015016912837e-06</v>
+        <v>1.478318589904527e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.72708333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>4009103.762518344</v>
+        <v>4176808.760919152</v>
       </c>
     </row>
     <row r="10">
@@ -13541,28 +13541,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3149.549585396213</v>
+        <v>3284.880574780095</v>
       </c>
       <c r="AB10" t="n">
-        <v>4309.352691060573</v>
+        <v>4494.518521117494</v>
       </c>
       <c r="AC10" t="n">
-        <v>3898.074118440078</v>
+        <v>4065.567981558233</v>
       </c>
       <c r="AD10" t="n">
-        <v>3149549.585396213</v>
+        <v>3284880.574780095</v>
       </c>
       <c r="AE10" t="n">
-        <v>4309352.691060573</v>
+        <v>4494518.521117494</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.025082437451413e-06</v>
+        <v>1.494453630561302e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.39583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>3898074.118440078</v>
+        <v>4065567.981558233</v>
       </c>
     </row>
     <row r="11">
@@ -13647,28 +13647,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3074.069906254416</v>
+        <v>3201.097394695</v>
       </c>
       <c r="AB11" t="n">
-        <v>4206.07806413033</v>
+        <v>4379.882677872022</v>
       </c>
       <c r="AC11" t="n">
-        <v>3804.655876957212</v>
+        <v>3961.872822299698</v>
       </c>
       <c r="AD11" t="n">
-        <v>3074069.906254416</v>
+        <v>3201097.394695</v>
       </c>
       <c r="AE11" t="n">
-        <v>4206078.06413033</v>
+        <v>4379882.677872023</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.033308222986842e-06</v>
+        <v>1.506445890508905e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.15625</v>
       </c>
       <c r="AH11" t="n">
-        <v>3804655.876957212</v>
+        <v>3961872.822299698</v>
       </c>
     </row>
     <row r="12">
@@ -13753,28 +13753,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3000.742022625172</v>
+        <v>3136.158263355073</v>
       </c>
       <c r="AB12" t="n">
-        <v>4105.747618750882</v>
+        <v>4291.030093460452</v>
       </c>
       <c r="AC12" t="n">
-        <v>3713.900828470117</v>
+        <v>3881.500203838985</v>
       </c>
       <c r="AD12" t="n">
-        <v>3000742.022625172</v>
+        <v>3136158.263355074</v>
       </c>
       <c r="AE12" t="n">
-        <v>4105747.618750882</v>
+        <v>4291030.093460452</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.039888851415185e-06</v>
+        <v>1.516039698466987e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.9625</v>
       </c>
       <c r="AH12" t="n">
-        <v>3713900.828470117</v>
+        <v>3881500.203838985</v>
       </c>
     </row>
     <row r="13">
@@ -13859,28 +13859,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2924.55374243681</v>
+        <v>3059.969983166713</v>
       </c>
       <c r="AB13" t="n">
-        <v>4001.503452607459</v>
+        <v>4186.785927317029</v>
       </c>
       <c r="AC13" t="n">
-        <v>3619.605579235821</v>
+        <v>3787.204954604689</v>
       </c>
       <c r="AD13" t="n">
-        <v>2924553.74243681</v>
+        <v>3059969.983166713</v>
       </c>
       <c r="AE13" t="n">
-        <v>4001503.452607459</v>
+        <v>4186785.927317029</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.046469479843528e-06</v>
+        <v>1.52563350642507e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.775</v>
       </c>
       <c r="AH13" t="n">
-        <v>3619605.579235821</v>
+        <v>3787204.954604689</v>
       </c>
     </row>
     <row r="14">
@@ -13965,28 +13965,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2865.438475003178</v>
+        <v>2992.551214789783</v>
       </c>
       <c r="AB14" t="n">
-        <v>3920.619335723221</v>
+        <v>4094.540594117563</v>
       </c>
       <c r="AC14" t="n">
-        <v>3546.440928945446</v>
+        <v>3703.763386538644</v>
       </c>
       <c r="AD14" t="n">
-        <v>2865438.475003178</v>
+        <v>2992551.214789783</v>
       </c>
       <c r="AE14" t="n">
-        <v>3920619.33572322</v>
+        <v>4094540.594117563</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.051255391427777e-06</v>
+        <v>1.532610821303675e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.64166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>3546440.928945445</v>
+        <v>3703763.386538644</v>
       </c>
     </row>
     <row r="15">
@@ -14071,28 +14071,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2824.956318152806</v>
+        <v>2952.06905793941</v>
       </c>
       <c r="AB15" t="n">
-        <v>3865.229862773824</v>
+        <v>4039.151121168166</v>
       </c>
       <c r="AC15" t="n">
-        <v>3496.337749554728</v>
+        <v>3653.660207147927</v>
       </c>
       <c r="AD15" t="n">
-        <v>2824956.318152806</v>
+        <v>2952069.05793941</v>
       </c>
       <c r="AE15" t="n">
-        <v>3865229.862773824</v>
+        <v>4039151.121168166</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.054695265378956e-06</v>
+        <v>1.537625766372673e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.54166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>3496337.749554728</v>
+        <v>3653660.207147927</v>
       </c>
     </row>
     <row r="16">
@@ -14177,28 +14177,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2814.380211523374</v>
+        <v>2941.492951309979</v>
       </c>
       <c r="AB16" t="n">
-        <v>3850.75916709854</v>
+        <v>4024.680425492883</v>
       </c>
       <c r="AC16" t="n">
-        <v>3483.248116764945</v>
+        <v>3640.570574358144</v>
       </c>
       <c r="AD16" t="n">
-        <v>2814380.211523374</v>
+        <v>2941492.951309978</v>
       </c>
       <c r="AE16" t="n">
-        <v>3850759.16709854</v>
+        <v>4024680.425492883</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.055293504326987e-06</v>
+        <v>1.538497930732499e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.525</v>
       </c>
       <c r="AH16" t="n">
-        <v>3483248.116764945</v>
+        <v>3640570.574358144</v>
       </c>
     </row>
     <row r="17">
@@ -14283,28 +14283,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2825.808852871337</v>
+        <v>2952.921592657943</v>
       </c>
       <c r="AB17" t="n">
-        <v>3866.396338386897</v>
+        <v>4040.31759678124</v>
       </c>
       <c r="AC17" t="n">
-        <v>3497.392898372449</v>
+        <v>3654.715355965647</v>
       </c>
       <c r="AD17" t="n">
-        <v>2825808.852871337</v>
+        <v>2952921.592657943</v>
       </c>
       <c r="AE17" t="n">
-        <v>3866396.338386897</v>
+        <v>4040317.59678124</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.055293504326987e-06</v>
+        <v>1.538497930732499e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.52708333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>3497392.898372449</v>
+        <v>3654715.355965647</v>
       </c>
     </row>
   </sheetData>
@@ -14580,28 +14580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2239.695587175863</v>
+        <v>2380.796783106552</v>
       </c>
       <c r="AB2" t="n">
-        <v>3064.45031076995</v>
+        <v>3257.51119198776</v>
       </c>
       <c r="AC2" t="n">
-        <v>2771.983474092974</v>
+        <v>2946.618895769998</v>
       </c>
       <c r="AD2" t="n">
-        <v>2239695.587175863</v>
+        <v>2380796.783106552</v>
       </c>
       <c r="AE2" t="n">
-        <v>3064450.31076995</v>
+        <v>3257511.19198776</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.042059788861916e-06</v>
+        <v>1.669624559181501e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.78541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2771983.474092974</v>
+        <v>2946618.895769998</v>
       </c>
     </row>
     <row r="3">
@@ -14686,28 +14686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1728.276717639446</v>
+        <v>1854.507189608047</v>
       </c>
       <c r="AB3" t="n">
-        <v>2364.704451261886</v>
+        <v>2537.418551904717</v>
       </c>
       <c r="AC3" t="n">
-        <v>2139.020377316994</v>
+        <v>2295.250886600235</v>
       </c>
       <c r="AD3" t="n">
-        <v>1728276.717639446</v>
+        <v>1854507.189608047</v>
       </c>
       <c r="AE3" t="n">
-        <v>2364704.451261886</v>
+        <v>2537418.551904717</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.170751130014736e-06</v>
+        <v>1.87581831700553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.84791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2139020.377316994</v>
+        <v>2295250.886600235</v>
       </c>
     </row>
     <row r="4">
@@ -14792,28 +14792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1745.09915206632</v>
+        <v>1871.329624034921</v>
       </c>
       <c r="AB4" t="n">
-        <v>2387.721648198163</v>
+        <v>2560.435748840993</v>
       </c>
       <c r="AC4" t="n">
-        <v>2159.840845282511</v>
+        <v>2316.071354565752</v>
       </c>
       <c r="AD4" t="n">
-        <v>1745099.15206632</v>
+        <v>1871329.624034921</v>
       </c>
       <c r="AE4" t="n">
-        <v>2387721.648198163</v>
+        <v>2560435.748840993</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.171467076279842e-06</v>
+        <v>1.876965431096345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2159840.845282511</v>
+        <v>2316071.354565752</v>
       </c>
     </row>
   </sheetData>
@@ -15089,28 +15089,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8399.941490489648</v>
+        <v>8638.533980617716</v>
       </c>
       <c r="AB2" t="n">
-        <v>11493.17052655298</v>
+        <v>11819.623297504</v>
       </c>
       <c r="AC2" t="n">
-        <v>10396.27846226447</v>
+        <v>10691.57503893527</v>
       </c>
       <c r="AD2" t="n">
-        <v>8399941.490489647</v>
+        <v>8638533.980617717</v>
       </c>
       <c r="AE2" t="n">
-        <v>11493170.52655298</v>
+        <v>11819623.297504</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.787323867900846e-07</v>
+        <v>8.593268474837597e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.975</v>
       </c>
       <c r="AH2" t="n">
-        <v>10396278.46226447</v>
+        <v>10691575.03893526</v>
       </c>
     </row>
     <row r="3">
@@ -15195,28 +15195,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4266.690700077493</v>
+        <v>4431.184274807807</v>
       </c>
       <c r="AB3" t="n">
-        <v>5837.87444895522</v>
+        <v>6062.941814845597</v>
       </c>
       <c r="AC3" t="n">
-        <v>5280.715905054963</v>
+        <v>5484.303157428786</v>
       </c>
       <c r="AD3" t="n">
-        <v>4266690.700077493</v>
+        <v>4431184.274807807</v>
       </c>
       <c r="AE3" t="n">
-        <v>5837874.44895522</v>
+        <v>6062941.814845597</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.527051072425643e-07</v>
+        <v>1.266133377646679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.99166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>5280715.905054962</v>
+        <v>5484303.157428786</v>
       </c>
     </row>
     <row r="4">
@@ -15301,28 +15301,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3523.210503344812</v>
+        <v>3663.089869972332</v>
       </c>
       <c r="AB4" t="n">
-        <v>4820.61204375414</v>
+        <v>5012.001164216047</v>
       </c>
       <c r="AC4" t="n">
-        <v>4360.53959606956</v>
+        <v>4533.662807490893</v>
       </c>
       <c r="AD4" t="n">
-        <v>3523210.503344812</v>
+        <v>3663089.869972331</v>
       </c>
       <c r="AE4" t="n">
-        <v>4820612.04375414</v>
+        <v>5012001.164216047</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.505080817968263e-07</v>
+        <v>1.411355459072602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.08125</v>
       </c>
       <c r="AH4" t="n">
-        <v>4360539.596069559</v>
+        <v>4533662.807490893</v>
       </c>
     </row>
     <row r="5">
@@ -15407,28 +15407,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3190.347348131222</v>
+        <v>3330.056033049597</v>
       </c>
       <c r="AB5" t="n">
-        <v>4365.173989904878</v>
+        <v>4556.329576122389</v>
       </c>
       <c r="AC5" t="n">
-        <v>3948.567910868364</v>
+        <v>4121.479876225821</v>
       </c>
       <c r="AD5" t="n">
-        <v>3190347.348131222</v>
+        <v>3330056.033049597</v>
       </c>
       <c r="AE5" t="n">
-        <v>4365173.989904878</v>
+        <v>4556329.576122389</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.000575741266576e-06</v>
+        <v>1.485698082632454e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.37708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3948567.910868364</v>
+        <v>4121479.87622582</v>
       </c>
     </row>
     <row r="6">
@@ -15513,28 +15513,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2989.66976700492</v>
+        <v>3121.230579955894</v>
       </c>
       <c r="AB6" t="n">
-        <v>4090.598070137809</v>
+        <v>4270.605378470781</v>
       </c>
       <c r="AC6" t="n">
-        <v>3700.197131514152</v>
+        <v>3863.024794981662</v>
       </c>
       <c r="AD6" t="n">
-        <v>2989669.76700492</v>
+        <v>3121230.579955894</v>
       </c>
       <c r="AE6" t="n">
-        <v>4090598.070137809</v>
+        <v>4270605.378470781</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.031207197526019e-06</v>
+        <v>1.531180992077457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.4125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3700197.131514152</v>
+        <v>3863024.794981662</v>
       </c>
     </row>
     <row r="7">
@@ -15619,28 +15619,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2839.072322434843</v>
+        <v>2970.718386731838</v>
       </c>
       <c r="AB7" t="n">
-        <v>3884.544002586666</v>
+        <v>4064.667955572287</v>
       </c>
       <c r="AC7" t="n">
-        <v>3513.808574971397</v>
+        <v>3676.741750689619</v>
       </c>
       <c r="AD7" t="n">
-        <v>2839072.322434843</v>
+        <v>2970718.386731838</v>
       </c>
       <c r="AE7" t="n">
-        <v>3884544.002586666</v>
+        <v>4064667.955572287</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.052664765870197e-06</v>
+        <v>1.563042116460251e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.775</v>
       </c>
       <c r="AH7" t="n">
-        <v>3513808.574971397</v>
+        <v>3676741.750689619</v>
       </c>
     </row>
     <row r="8">
@@ -15725,28 +15725,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2723.800701268849</v>
+        <v>2847.213642252422</v>
       </c>
       <c r="AB8" t="n">
-        <v>3726.82428508233</v>
+        <v>3895.683315530761</v>
       </c>
       <c r="AC8" t="n">
-        <v>3371.141405944667</v>
+        <v>3523.884767522231</v>
       </c>
       <c r="AD8" t="n">
-        <v>2723800.701268849</v>
+        <v>2847213.642252422</v>
       </c>
       <c r="AE8" t="n">
-        <v>3726824.28508233</v>
+        <v>3895683.315530761</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.067902749187077e-06</v>
+        <v>1.585668132326293e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.33333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3371141.405944667</v>
+        <v>3523884.767522231</v>
       </c>
     </row>
     <row r="9">
@@ -15831,28 +15831,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2621.672597890333</v>
+        <v>2745.085538873906</v>
       </c>
       <c r="AB9" t="n">
-        <v>3587.088108465902</v>
+        <v>3755.947138914332</v>
       </c>
       <c r="AC9" t="n">
-        <v>3244.741453903561</v>
+        <v>3397.484815481124</v>
       </c>
       <c r="AD9" t="n">
-        <v>2621672.597890333</v>
+        <v>2745085.538873906</v>
       </c>
       <c r="AE9" t="n">
-        <v>3587088.108465902</v>
+        <v>3755947.138914332</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.079253491861896e-06</v>
+        <v>1.602522205369365e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.01458333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>3244741.453903561</v>
+        <v>3397484.815481124</v>
       </c>
     </row>
     <row r="10">
@@ -15937,28 +15937,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2539.082372580056</v>
+        <v>2670.64309602248</v>
       </c>
       <c r="AB10" t="n">
-        <v>3474.084518572789</v>
+        <v>3654.091704436212</v>
       </c>
       <c r="AC10" t="n">
-        <v>3142.522768028316</v>
+        <v>3305.3503207146</v>
       </c>
       <c r="AD10" t="n">
-        <v>2539082.372580056</v>
+        <v>2670643.09602248</v>
       </c>
       <c r="AE10" t="n">
-        <v>3474084.518572789</v>
+        <v>3654091.704436212</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.087027973146019e-06</v>
+        <v>1.614066091015305e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29.79791666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3142522.768028317</v>
+        <v>3305350.320714599</v>
       </c>
     </row>
     <row r="11">
@@ -16043,28 +16043,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2512.076115186679</v>
+        <v>2643.636838629102</v>
       </c>
       <c r="AB11" t="n">
-        <v>3437.133365775179</v>
+        <v>3617.140551638601</v>
       </c>
       <c r="AC11" t="n">
-        <v>3109.098181392443</v>
+        <v>3271.925734078725</v>
       </c>
       <c r="AD11" t="n">
-        <v>2512076.115186679</v>
+        <v>2643636.838629102</v>
       </c>
       <c r="AE11" t="n">
-        <v>3437133.365775179</v>
+        <v>3617140.551638601</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.089826786408303e-06</v>
+        <v>1.618221889847843e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.725</v>
       </c>
       <c r="AH11" t="n">
-        <v>3109098.181392443</v>
+        <v>3271925.734078725</v>
       </c>
     </row>
     <row r="12">
@@ -16149,28 +16149,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2523.36740468866</v>
+        <v>2654.928128131084</v>
       </c>
       <c r="AB12" t="n">
-        <v>3452.582606208326</v>
+        <v>3632.589792071749</v>
       </c>
       <c r="AC12" t="n">
-        <v>3123.072968001795</v>
+        <v>3285.900520688079</v>
       </c>
       <c r="AD12" t="n">
-        <v>2523367.40468866</v>
+        <v>2654928.128131084</v>
       </c>
       <c r="AE12" t="n">
-        <v>3452582.606208326</v>
+        <v>3632589.792071749</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.090448744911033e-06</v>
+        <v>1.619145400699518e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.70625</v>
       </c>
       <c r="AH12" t="n">
-        <v>3123072.968001795</v>
+        <v>3285900.520688079</v>
       </c>
     </row>
     <row r="13">
@@ -16255,28 +16255,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2536.192827645268</v>
+        <v>2667.753551087692</v>
       </c>
       <c r="AB13" t="n">
-        <v>3470.130915715286</v>
+        <v>3650.138101578709</v>
       </c>
       <c r="AC13" t="n">
-        <v>3138.946491478617</v>
+        <v>3301.774044164901</v>
       </c>
       <c r="AD13" t="n">
-        <v>2536192.827645268</v>
+        <v>2667753.551087692</v>
       </c>
       <c r="AE13" t="n">
-        <v>3470130.915715286</v>
+        <v>3650138.101578709</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.090448744911033e-06</v>
+        <v>1.619145400699518e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.70625</v>
       </c>
       <c r="AH13" t="n">
-        <v>3138946.491478617</v>
+        <v>3301774.044164901</v>
       </c>
     </row>
   </sheetData>
@@ -16552,28 +16552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>10658.69646152742</v>
+        <v>10925.91272436495</v>
       </c>
       <c r="AB2" t="n">
-        <v>14583.69872716346</v>
+        <v>14949.3158067273</v>
       </c>
       <c r="AC2" t="n">
-        <v>13191.85098899215</v>
+        <v>13522.57408762919</v>
       </c>
       <c r="AD2" t="n">
-        <v>10658696.46152741</v>
+        <v>10925912.72436495</v>
       </c>
       <c r="AE2" t="n">
-        <v>14583698.72716346</v>
+        <v>14949315.8067273</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.111304088038817e-07</v>
+        <v>7.515878654864712e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.09166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>13191850.98899215</v>
+        <v>13522574.08762919</v>
       </c>
     </row>
     <row r="3">
@@ -16658,28 +16658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4875.427821611007</v>
+        <v>5042.59794404394</v>
       </c>
       <c r="AB3" t="n">
-        <v>6670.775434223851</v>
+        <v>6899.504970761904</v>
       </c>
       <c r="AC3" t="n">
-        <v>6034.1259892734</v>
+        <v>6241.025899868172</v>
       </c>
       <c r="AD3" t="n">
-        <v>4875427.821611007</v>
+        <v>5042597.94404394</v>
       </c>
       <c r="AE3" t="n">
-        <v>6670775.434223851</v>
+        <v>6899504.970761904</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.018120243024828e-07</v>
+        <v>1.179018460821251e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.58333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>6034125.9892734</v>
+        <v>6241025.899868172</v>
       </c>
     </row>
     <row r="4">
@@ -16764,28 +16764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3957.54578708744</v>
+        <v>4107.828305076488</v>
       </c>
       <c r="AB4" t="n">
-        <v>5414.888740491203</v>
+        <v>5620.511911600603</v>
       </c>
       <c r="AC4" t="n">
-        <v>4898.099358942595</v>
+        <v>5084.09814319524</v>
       </c>
       <c r="AD4" t="n">
-        <v>3957545.78708744</v>
+        <v>4107828.305076488</v>
       </c>
       <c r="AE4" t="n">
-        <v>5414888.740491203</v>
+        <v>5620511.911600603</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.054092457590073e-07</v>
+        <v>1.331352215972011e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>36</v>
+        <v>35.05208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>4898099.358942595</v>
+        <v>5084098.14319524</v>
       </c>
     </row>
     <row r="5">
@@ -16870,28 +16870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3559.682903741744</v>
+        <v>3701.606915609146</v>
       </c>
       <c r="AB5" t="n">
-        <v>4870.515191025968</v>
+        <v>5064.701885308465</v>
       </c>
       <c r="AC5" t="n">
-        <v>4405.68005700527</v>
+        <v>4581.333845728176</v>
       </c>
       <c r="AD5" t="n">
-        <v>3559682.903741744</v>
+        <v>3701606.915609146</v>
       </c>
       <c r="AE5" t="n">
-        <v>4870515.191025969</v>
+        <v>5064701.885308465</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.597977870236826e-07</v>
+        <v>1.41132743742616e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>34</v>
+        <v>33.06666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>4405680.05700527</v>
+        <v>4581333.845728176</v>
       </c>
     </row>
     <row r="6">
@@ -16976,28 +16976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3320.841033509155</v>
+        <v>3462.764955868006</v>
       </c>
       <c r="AB6" t="n">
-        <v>4543.721207214068</v>
+        <v>4737.907779027018</v>
       </c>
       <c r="AC6" t="n">
-        <v>4110.074832350154</v>
+        <v>4285.728510291832</v>
       </c>
       <c r="AD6" t="n">
-        <v>3320841.033509155</v>
+        <v>3462764.955868006</v>
       </c>
       <c r="AE6" t="n">
-        <v>4543721.207214069</v>
+        <v>4737907.779027018</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.93466883997053e-07</v>
+        <v>1.460835907850157e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.95</v>
       </c>
       <c r="AH6" t="n">
-        <v>4110074.832350153</v>
+        <v>4285728.510291832</v>
       </c>
     </row>
     <row r="7">
@@ -17082,28 +17082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3169.89976654859</v>
+        <v>3303.465272294345</v>
       </c>
       <c r="AB7" t="n">
-        <v>4337.196706699886</v>
+        <v>4519.94692415548</v>
       </c>
       <c r="AC7" t="n">
-        <v>3923.260740306095</v>
+        <v>4088.569533499262</v>
       </c>
       <c r="AD7" t="n">
-        <v>3169899.76654859</v>
+        <v>3303465.272294345</v>
       </c>
       <c r="AE7" t="n">
-        <v>4337196.706699886</v>
+        <v>4519946.92415548</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.015862165694272e-06</v>
+        <v>1.493766881390101e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.24375</v>
       </c>
       <c r="AH7" t="n">
-        <v>3923260.740306095</v>
+        <v>4088569.533499262</v>
       </c>
     </row>
     <row r="8">
@@ -17188,28 +17188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3038.313048086188</v>
+        <v>3171.963805177965</v>
       </c>
       <c r="AB8" t="n">
-        <v>4157.15395330331</v>
+        <v>4340.020815411554</v>
       </c>
       <c r="AC8" t="n">
-        <v>3760.401014602103</v>
+        <v>3925.815320045983</v>
       </c>
       <c r="AD8" t="n">
-        <v>3038313.048086188</v>
+        <v>3171963.805177965</v>
       </c>
       <c r="AE8" t="n">
-        <v>4157153.95330331</v>
+        <v>4340020.815411555</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.032772888608499e-06</v>
+        <v>1.518633126716181e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.73125</v>
       </c>
       <c r="AH8" t="n">
-        <v>3760401.014602103</v>
+        <v>3925815.320045983</v>
       </c>
     </row>
     <row r="9">
@@ -17294,28 +17294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2941.492329434447</v>
+        <v>3074.97249432563</v>
       </c>
       <c r="AB9" t="n">
-        <v>4024.679574615344</v>
+        <v>4207.313024948741</v>
       </c>
       <c r="AC9" t="n">
-        <v>3640.569804687164</v>
+        <v>3805.772974848393</v>
       </c>
       <c r="AD9" t="n">
-        <v>2941492.329434447</v>
+        <v>3074972.49432563</v>
       </c>
       <c r="AE9" t="n">
-        <v>4024679.574615344</v>
+        <v>4207313.024948741</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.045113145870232e-06</v>
+        <v>1.536778765197375e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.36875</v>
       </c>
       <c r="AH9" t="n">
-        <v>3640569.804687164</v>
+        <v>3805772.974848392</v>
       </c>
     </row>
     <row r="10">
@@ -17400,28 +17400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2851.047271281914</v>
+        <v>2976.339611760594</v>
       </c>
       <c r="AB10" t="n">
-        <v>3900.928655896687</v>
+        <v>4072.359163647577</v>
       </c>
       <c r="AC10" t="n">
-        <v>3528.629499965515</v>
+        <v>3683.698920660882</v>
       </c>
       <c r="AD10" t="n">
-        <v>2851047.271281914</v>
+        <v>2976339.611760594</v>
       </c>
       <c r="AE10" t="n">
-        <v>3900928.655896687</v>
+        <v>4072359.163647577</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.055320519160801e-06</v>
+        <v>1.551788120484288e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.07291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3528629.499965515</v>
+        <v>3683698.920660882</v>
       </c>
     </row>
     <row r="11">
@@ -17506,28 +17506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2760.640911796303</v>
+        <v>2894.206328033507</v>
       </c>
       <c r="AB11" t="n">
-        <v>3777.230686401376</v>
+        <v>3959.980781387423</v>
       </c>
       <c r="AC11" t="n">
-        <v>3416.737091067651</v>
+        <v>3582.045773479591</v>
       </c>
       <c r="AD11" t="n">
-        <v>2760640.911796303</v>
+        <v>2894206.328033507</v>
       </c>
       <c r="AE11" t="n">
-        <v>3777230.686401376</v>
+        <v>3959980.781387423</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.063242659625124e-06</v>
+        <v>1.563437172348758e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.85416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>3416737.091067651</v>
+        <v>3582045.773479591</v>
       </c>
     </row>
     <row r="12">
@@ -17612,28 +17612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2694.472500506829</v>
+        <v>2819.850092331529</v>
       </c>
       <c r="AB12" t="n">
-        <v>3686.696146930829</v>
+        <v>3858.243299334369</v>
       </c>
       <c r="AC12" t="n">
-        <v>3334.843040978152</v>
+        <v>3490.017973924231</v>
       </c>
       <c r="AD12" t="n">
-        <v>2694472.500506829</v>
+        <v>2819850.092331529</v>
       </c>
       <c r="AE12" t="n">
-        <v>3686696.146930829</v>
+        <v>3858243.299334369</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.069184264973366e-06</v>
+        <v>1.57217396124711e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.68541666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3334843.040978152</v>
+        <v>3490017.973924231</v>
       </c>
     </row>
     <row r="13">
@@ -17718,28 +17718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2669.729938616731</v>
+        <v>2795.107530441431</v>
       </c>
       <c r="AB13" t="n">
-        <v>3652.842282188004</v>
+        <v>3824.389434591543</v>
       </c>
       <c r="AC13" t="n">
-        <v>3304.220141572185</v>
+        <v>3459.395074518265</v>
       </c>
       <c r="AD13" t="n">
-        <v>2669729.938616731</v>
+        <v>2795107.530441431</v>
       </c>
       <c r="AE13" t="n">
-        <v>3652842.282188003</v>
+        <v>3824389.434591543</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.071469497799613e-06</v>
+        <v>1.575534264669553e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.62083333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>3304220.141572185</v>
+        <v>3459395.074518265</v>
       </c>
     </row>
     <row r="14">
@@ -17824,28 +17824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2669.174400681439</v>
+        <v>2794.551992506139</v>
       </c>
       <c r="AB14" t="n">
-        <v>3652.082170676334</v>
+        <v>3823.629323079874</v>
       </c>
       <c r="AC14" t="n">
-        <v>3303.532574036366</v>
+        <v>3458.707506982445</v>
       </c>
       <c r="AD14" t="n">
-        <v>2669174.400681439</v>
+        <v>2794551.992506139</v>
       </c>
       <c r="AE14" t="n">
-        <v>3652082.170676334</v>
+        <v>3823629.323079874</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.072231242075028e-06</v>
+        <v>1.576654365810368e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>3303532.574036366</v>
+        <v>3458707.506982445</v>
       </c>
     </row>
     <row r="15">
@@ -17930,28 +17930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2681.533631391054</v>
+        <v>2806.911223215754</v>
       </c>
       <c r="AB15" t="n">
-        <v>3668.992615384007</v>
+        <v>3840.539767787546</v>
       </c>
       <c r="AC15" t="n">
-        <v>3318.829109635096</v>
+        <v>3474.004042581176</v>
       </c>
       <c r="AD15" t="n">
-        <v>2681533.631391054</v>
+        <v>2806911.223215754</v>
       </c>
       <c r="AE15" t="n">
-        <v>3668992.615384007</v>
+        <v>3840539.767787546</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.072231242075028e-06</v>
+        <v>1.576654365810368e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.6</v>
       </c>
       <c r="AH15" t="n">
-        <v>3318829.109635096</v>
+        <v>3474004.042581176</v>
       </c>
     </row>
   </sheetData>
@@ -18227,28 +18227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>17443.36905908545</v>
+        <v>17786.39293436346</v>
       </c>
       <c r="AB2" t="n">
-        <v>23866.78709377305</v>
+        <v>24336.12749307378</v>
       </c>
       <c r="AC2" t="n">
-        <v>21588.97443078852</v>
+        <v>22013.52164110336</v>
       </c>
       <c r="AD2" t="n">
-        <v>17443369.05908545</v>
+        <v>17786392.93436346</v>
       </c>
       <c r="AE2" t="n">
-        <v>23866787.09377306</v>
+        <v>24336127.49307378</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.923310884487711e-07</v>
+        <v>5.676138322778101e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>79</v>
+        <v>78.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>21588974.43078852</v>
+        <v>22013521.64110336</v>
       </c>
     </row>
     <row r="3">
@@ -18333,28 +18333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>6256.057741853911</v>
+        <v>6444.691044236562</v>
       </c>
       <c r="AB3" t="n">
-        <v>8559.814200193636</v>
+        <v>8817.910606427562</v>
       </c>
       <c r="AC3" t="n">
-        <v>7742.877546701515</v>
+        <v>7976.341594165047</v>
       </c>
       <c r="AD3" t="n">
-        <v>6256057.741853911</v>
+        <v>6444691.044236561</v>
       </c>
       <c r="AE3" t="n">
-        <v>8559814.200193636</v>
+        <v>8817910.606427561</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.095193035102402e-07</v>
+        <v>1.026513021267029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.18125000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>7742877.546701515</v>
+        <v>7976341.594165048</v>
       </c>
     </row>
     <row r="4">
@@ -18439,28 +18439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4856.687841987729</v>
+        <v>5019.575158745391</v>
       </c>
       <c r="AB4" t="n">
-        <v>6645.13456735373</v>
+        <v>6868.004180222822</v>
       </c>
       <c r="AC4" t="n">
-        <v>6010.932250750181</v>
+        <v>6212.531500566505</v>
       </c>
       <c r="AD4" t="n">
-        <v>4856687.841987729</v>
+        <v>5019575.158745391</v>
       </c>
       <c r="AE4" t="n">
-        <v>6645134.56735373</v>
+        <v>6868004.180222822</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.261304553617677e-07</v>
+        <v>1.195222829736408e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.08541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>6010932.250750181</v>
+        <v>6212531.500566505</v>
       </c>
     </row>
     <row r="5">
@@ -18545,28 +18545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4298.29131925299</v>
+        <v>4452.681892148344</v>
       </c>
       <c r="AB5" t="n">
-        <v>5881.111810232065</v>
+        <v>6092.355803298865</v>
       </c>
       <c r="AC5" t="n">
-        <v>5319.826753255562</v>
+        <v>5510.909916106863</v>
       </c>
       <c r="AD5" t="n">
-        <v>4298291.31925299</v>
+        <v>4452681.892148344</v>
       </c>
       <c r="AE5" t="n">
-        <v>5881111.810232066</v>
+        <v>6092355.803298865</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.875976198938467e-07</v>
+        <v>1.284151833444101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.5125</v>
       </c>
       <c r="AH5" t="n">
-        <v>5319826.753255562</v>
+        <v>5510909.916106863</v>
       </c>
     </row>
     <row r="6">
@@ -18651,28 +18651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3996.964084800655</v>
+        <v>4142.687411141659</v>
       </c>
       <c r="AB6" t="n">
-        <v>5468.822594434988</v>
+        <v>5668.207678394194</v>
       </c>
       <c r="AC6" t="n">
-        <v>4946.885841562625</v>
+        <v>5127.241892947479</v>
       </c>
       <c r="AD6" t="n">
-        <v>3996964.084800655</v>
+        <v>4142687.411141659</v>
       </c>
       <c r="AE6" t="n">
-        <v>5468822.594434988</v>
+        <v>5668207.678394194</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.256837338024791e-07</v>
+        <v>1.339253775932839e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>34</v>
+        <v>33.09583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>4946885.841562625</v>
+        <v>5127241.892947479</v>
       </c>
     </row>
     <row r="7">
@@ -18757,28 +18757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3794.00377123974</v>
+        <v>3931.230443226986</v>
       </c>
       <c r="AB7" t="n">
-        <v>5191.123339443834</v>
+        <v>5378.882926070292</v>
       </c>
       <c r="AC7" t="n">
-        <v>4695.689813714484</v>
+        <v>4865.529888915542</v>
       </c>
       <c r="AD7" t="n">
-        <v>3794003.77123974</v>
+        <v>3931230.443226986</v>
       </c>
       <c r="AE7" t="n">
-        <v>5191123.339443834</v>
+        <v>5378882.926070292</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.518587464501109e-07</v>
+        <v>1.377123064593053e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>33</v>
+        <v>32.18541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4695689.813714484</v>
+        <v>4865529.888915542</v>
       </c>
     </row>
     <row r="8">
@@ -18863,28 +18863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3647.393241410376</v>
+        <v>3784.705164743642</v>
       </c>
       <c r="AB8" t="n">
-        <v>4990.524344531199</v>
+        <v>5178.400575810307</v>
       </c>
       <c r="AC8" t="n">
-        <v>4514.235705333862</v>
+        <v>4684.181292785631</v>
       </c>
       <c r="AD8" t="n">
-        <v>3647393.241410376</v>
+        <v>3784705.164743642</v>
       </c>
       <c r="AE8" t="n">
-        <v>4990524.344531199</v>
+        <v>5178400.575810307</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.706812274551494e-07</v>
+        <v>1.404354912618375e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.56041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>4514235.705333862</v>
+        <v>4684181.292785631</v>
       </c>
     </row>
     <row r="9">
@@ -18969,28 +18969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3535.208397475821</v>
+        <v>3672.349728608496</v>
       </c>
       <c r="AB9" t="n">
-        <v>4837.028091813918</v>
+        <v>5024.67091131818</v>
       </c>
       <c r="AC9" t="n">
-        <v>4375.38891954258</v>
+        <v>4545.123371711698</v>
       </c>
       <c r="AD9" t="n">
-        <v>3535208.397475821</v>
+        <v>3672349.728608496</v>
       </c>
       <c r="AE9" t="n">
-        <v>4837028.091813918</v>
+        <v>5024670.911318179</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.853862907403358e-07</v>
+        <v>1.425629793888158e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>32</v>
+        <v>31.09166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>4375388.91954258</v>
+        <v>4545123.371711698</v>
       </c>
     </row>
     <row r="10">
@@ -19075,28 +19075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3435.351240507304</v>
+        <v>3572.577822985999</v>
       </c>
       <c r="AB10" t="n">
-        <v>4700.399124262737</v>
+        <v>4888.158588419647</v>
       </c>
       <c r="AC10" t="n">
-        <v>4251.799628894529</v>
+        <v>4421.639593314359</v>
       </c>
       <c r="AD10" t="n">
-        <v>3435351.240507304</v>
+        <v>3572577.822985999</v>
       </c>
       <c r="AE10" t="n">
-        <v>4700399.124262737</v>
+        <v>4888158.588419647</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.965621388370771e-07</v>
+        <v>1.441798703653193e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.74166666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>4251799.628894528</v>
+        <v>4421639.593314359</v>
       </c>
     </row>
     <row r="11">
@@ -19181,28 +19181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3360.524802038592</v>
+        <v>3497.580792316695</v>
       </c>
       <c r="AB11" t="n">
-        <v>4598.018290040354</v>
+        <v>4785.544342422418</v>
       </c>
       <c r="AC11" t="n">
-        <v>4159.18987779793</v>
+        <v>4328.81870693511</v>
       </c>
       <c r="AD11" t="n">
-        <v>3360524.802038592</v>
+        <v>3497580.792316695</v>
       </c>
       <c r="AE11" t="n">
-        <v>4598018.290040354</v>
+        <v>4785544.342422417</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.005679278073893e-06</v>
+        <v>1.454989130040459e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.4625</v>
       </c>
       <c r="AH11" t="n">
-        <v>4159189.877797931</v>
+        <v>4328818.70693511</v>
       </c>
     </row>
     <row r="12">
@@ -19287,28 +19287,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3285.395228480711</v>
+        <v>3414.039905259629</v>
       </c>
       <c r="AB12" t="n">
-        <v>4495.222693015597</v>
+        <v>4671.240015187111</v>
       </c>
       <c r="AC12" t="n">
-        <v>4066.204948278692</v>
+        <v>4225.423424264015</v>
       </c>
       <c r="AD12" t="n">
-        <v>3285395.228480712</v>
+        <v>3414039.905259629</v>
       </c>
       <c r="AE12" t="n">
-        <v>4495222.693015597</v>
+        <v>4671240.015187111</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.014208214779301e-06</v>
+        <v>1.467328561176933e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>4066204.948278693</v>
+        <v>4225423.424264015</v>
       </c>
     </row>
     <row r="13">
@@ -19393,28 +19393,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3230.210331934943</v>
+        <v>3358.855008713859</v>
       </c>
       <c r="AB13" t="n">
-        <v>4419.716282975859</v>
+        <v>4595.733605147373</v>
       </c>
       <c r="AC13" t="n">
-        <v>3997.904764039239</v>
+        <v>4157.12324002456</v>
       </c>
       <c r="AD13" t="n">
-        <v>3230210.331934942</v>
+        <v>3358855.008713859</v>
       </c>
       <c r="AE13" t="n">
-        <v>4419716.282975859</v>
+        <v>4595733.605147373</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.019502037561968e-06</v>
+        <v>1.474987518434055e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>31</v>
+        <v>30.05208333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>3997904.764039238</v>
+        <v>4157123.24002456</v>
       </c>
     </row>
     <row r="14">
@@ -19499,28 +19499,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3155.392029109317</v>
+        <v>3292.533270733441</v>
       </c>
       <c r="AB14" t="n">
-        <v>4317.346580299268</v>
+        <v>4504.989277333981</v>
       </c>
       <c r="AC14" t="n">
-        <v>3905.305082109325</v>
+        <v>4075.039423497217</v>
       </c>
       <c r="AD14" t="n">
-        <v>3155392.029109317</v>
+        <v>3292533.270733441</v>
       </c>
       <c r="AE14" t="n">
-        <v>4317346.580299268</v>
+        <v>4504989.27733398</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.025531113508894e-06</v>
+        <v>1.483710219754666e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.87083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3905305.082109325</v>
+        <v>4075039.423497217</v>
       </c>
     </row>
     <row r="15">
@@ -19605,28 +19605,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>3103.41337557923</v>
+        <v>3240.554617203354</v>
       </c>
       <c r="AB15" t="n">
-        <v>4246.227093403045</v>
+        <v>4433.869790437758</v>
       </c>
       <c r="AC15" t="n">
-        <v>3840.973139225654</v>
+        <v>4010.707480613547</v>
       </c>
       <c r="AD15" t="n">
-        <v>3103413.37557923</v>
+        <v>3240554.617203354</v>
       </c>
       <c r="AE15" t="n">
-        <v>4246227.093403045</v>
+        <v>4433869.790437758</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.029501480595895e-06</v>
+        <v>1.489454437697507e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.75625</v>
       </c>
       <c r="AH15" t="n">
-        <v>3840973.139225654</v>
+        <v>4010707.480613546</v>
       </c>
     </row>
     <row r="16">
@@ -19711,28 +19711,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>3039.477036864821</v>
+        <v>3168.206964989758</v>
       </c>
       <c r="AB16" t="n">
-        <v>4158.746574101795</v>
+        <v>4334.880540925959</v>
       </c>
       <c r="AC16" t="n">
-        <v>3761.841637906838</v>
+        <v>3921.165626142872</v>
       </c>
       <c r="AD16" t="n">
-        <v>3039477.036864821</v>
+        <v>3168206.964989759</v>
       </c>
       <c r="AE16" t="n">
-        <v>4158746.574101795</v>
+        <v>4334880.540925959</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.03464825274571e-06</v>
+        <v>1.496900646141931e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.61041666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>3761841.637906838</v>
+        <v>3921165.626142872</v>
       </c>
     </row>
     <row r="17">
@@ -19817,28 +19817,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2998.290659494487</v>
+        <v>3127.020587619425</v>
       </c>
       <c r="AB17" t="n">
-        <v>4102.39355556897</v>
+        <v>4278.527522393133</v>
       </c>
       <c r="AC17" t="n">
-        <v>3710.86687237083</v>
+        <v>3870.190860606864</v>
       </c>
       <c r="AD17" t="n">
-        <v>2998290.659494487</v>
+        <v>3127020.587619425</v>
       </c>
       <c r="AE17" t="n">
-        <v>4102393.55556897</v>
+        <v>4278527.522393133</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.037442214769895e-06</v>
+        <v>1.50094287358319e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.52916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>3710866.87237083</v>
+        <v>3870190.860606864</v>
       </c>
     </row>
     <row r="18">
@@ -19923,28 +19923,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2967.014884394574</v>
+        <v>3095.57422031892</v>
       </c>
       <c r="AB18" t="n">
-        <v>4059.60066028745</v>
+        <v>4235.501215336767</v>
       </c>
       <c r="AC18" t="n">
-        <v>3672.158070954774</v>
+        <v>3831.270923908157</v>
       </c>
       <c r="AD18" t="n">
-        <v>2967014.884394574</v>
+        <v>3095574.22031892</v>
       </c>
       <c r="AE18" t="n">
-        <v>4059600.660287451</v>
+        <v>4235501.215336767</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.038912721098414e-06</v>
+        <v>1.503070361710168e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>29.4875</v>
       </c>
       <c r="AH18" t="n">
-        <v>3672158.070954774</v>
+        <v>3831270.923908157</v>
       </c>
     </row>
     <row r="19">
@@ -20029,28 +20029,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2971.012762647343</v>
+        <v>3099.572098571689</v>
       </c>
       <c r="AB19" t="n">
-        <v>4065.07073368683</v>
+        <v>4240.971288736147</v>
       </c>
       <c r="AC19" t="n">
-        <v>3677.106088226213</v>
+        <v>3836.218941179596</v>
       </c>
       <c r="AD19" t="n">
-        <v>2971012.762647343</v>
+        <v>3099572.098571689</v>
       </c>
       <c r="AE19" t="n">
-        <v>4065070.73368683</v>
+        <v>4240971.288736147</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.039500923629821e-06</v>
+        <v>1.50392135696096e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>29.47291666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>3677106.088226213</v>
+        <v>3836218.941179596</v>
       </c>
     </row>
     <row r="20">
@@ -20135,28 +20135,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2977.155772828465</v>
+        <v>3105.715108752811</v>
       </c>
       <c r="AB20" t="n">
-        <v>4073.475871227124</v>
+        <v>4249.376426276441</v>
       </c>
       <c r="AC20" t="n">
-        <v>3684.709051236346</v>
+        <v>3843.821904189729</v>
       </c>
       <c r="AD20" t="n">
-        <v>2977155.772828465</v>
+        <v>3105715.108752811</v>
       </c>
       <c r="AE20" t="n">
-        <v>4073475.871227124</v>
+        <v>4249376.426276441</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.040089126161229e-06</v>
+        <v>1.504772352211751e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>30</v>
+        <v>29.45625</v>
       </c>
       <c r="AH20" t="n">
-        <v>3684709.051236345</v>
+        <v>3843821.904189729</v>
       </c>
     </row>
     <row r="21">
@@ -20241,28 +20241,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>2990.027769964674</v>
+        <v>3118.587105889021</v>
       </c>
       <c r="AB21" t="n">
-        <v>4091.087905581323</v>
+        <v>4266.988460630639</v>
       </c>
       <c r="AC21" t="n">
-        <v>3700.640217750424</v>
+        <v>3859.753070703807</v>
       </c>
       <c r="AD21" t="n">
-        <v>2990027.769964674</v>
+        <v>3118587.10588902</v>
       </c>
       <c r="AE21" t="n">
-        <v>4091087.905581322</v>
+        <v>4266988.460630639</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.040089126161229e-06</v>
+        <v>1.504772352211751e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>30</v>
+        <v>29.45416666666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>3700640.217750424</v>
+        <v>3859753.070703807</v>
       </c>
     </row>
   </sheetData>
@@ -20538,28 +20538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6598.606493292054</v>
+        <v>6809.012192500655</v>
       </c>
       <c r="AB2" t="n">
-        <v>9028.504514095679</v>
+        <v>9316.39087419723</v>
       </c>
       <c r="AC2" t="n">
-        <v>8166.836714855717</v>
+        <v>8427.24760480021</v>
       </c>
       <c r="AD2" t="n">
-        <v>6598606.493292054</v>
+        <v>6809012.192500656</v>
       </c>
       <c r="AE2" t="n">
-        <v>9028504.514095679</v>
+        <v>9316390.87419723</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.54321914214997e-07</v>
+        <v>9.825851512024671e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.65208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>8166836.714855717</v>
+        <v>8427247.604800209</v>
       </c>
     </row>
     <row r="3">
@@ -20644,28 +20644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3684.616049771864</v>
+        <v>3838.18049214748</v>
       </c>
       <c r="AB3" t="n">
-        <v>5041.454233085798</v>
+        <v>5251.567877929185</v>
       </c>
       <c r="AC3" t="n">
-        <v>4560.304916805355</v>
+        <v>4750.365610281235</v>
       </c>
       <c r="AD3" t="n">
-        <v>3684616.049771864</v>
+        <v>3838180.49214748</v>
       </c>
       <c r="AE3" t="n">
-        <v>5041454.233085797</v>
+        <v>5251567.877929185</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.101326698818376e-07</v>
+        <v>1.36673222709198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>37</v>
+        <v>36.41458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4560304.916805355</v>
+        <v>4750365.610281235</v>
       </c>
     </row>
     <row r="4">
@@ -20750,28 +20750,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3095.86289684059</v>
+        <v>3233.321061604381</v>
       </c>
       <c r="AB4" t="n">
-        <v>4235.896195289225</v>
+        <v>4423.972520545291</v>
       </c>
       <c r="AC4" t="n">
-        <v>3831.628207528311</v>
+        <v>4001.754792268711</v>
       </c>
       <c r="AD4" t="n">
-        <v>3095862.89684059</v>
+        <v>3233321.061604381</v>
       </c>
       <c r="AE4" t="n">
-        <v>4235896.195289225</v>
+        <v>4423972.520545292</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.995391653325617e-07</v>
+        <v>1.500992585705106e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3831628.207528311</v>
+        <v>4001754.792268711</v>
       </c>
     </row>
     <row r="5">
@@ -20856,28 +20856,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2815.013709455942</v>
+        <v>2952.471784711181</v>
       </c>
       <c r="AB5" t="n">
-        <v>3851.625946917837</v>
+        <v>4039.702149704354</v>
       </c>
       <c r="AC5" t="n">
-        <v>3484.032172334822</v>
+        <v>3654.158646293994</v>
       </c>
       <c r="AD5" t="n">
-        <v>2815013.709455942</v>
+        <v>2952471.784711181</v>
       </c>
       <c r="AE5" t="n">
-        <v>3851625.946917837</v>
+        <v>4039702.149704354</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.045674189675462e-06</v>
+        <v>1.570272841928961e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.69375</v>
       </c>
       <c r="AH5" t="n">
-        <v>3484032.172334821</v>
+        <v>3654158.646293995</v>
       </c>
     </row>
     <row r="6">
@@ -20962,28 +20962,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2631.971723777674</v>
+        <v>2761.419330654285</v>
       </c>
       <c r="AB6" t="n">
-        <v>3601.179826870331</v>
+        <v>3778.295753424286</v>
       </c>
       <c r="AC6" t="n">
-        <v>3257.488278481321</v>
+        <v>3417.700509588724</v>
       </c>
       <c r="AD6" t="n">
-        <v>2631971.723777674</v>
+        <v>2761419.330654285</v>
       </c>
       <c r="AE6" t="n">
-        <v>3601179.826870331</v>
+        <v>3778295.753424286</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.073832463153715e-06</v>
+        <v>1.612557687969038e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.86458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>3257488.278481321</v>
+        <v>3417700.509588724</v>
       </c>
     </row>
     <row r="7">
@@ -21068,28 +21068,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2499.269936372261</v>
+        <v>2620.621823524225</v>
       </c>
       <c r="AB7" t="n">
-        <v>3419.611386952556</v>
+        <v>3585.650392621301</v>
       </c>
       <c r="AC7" t="n">
-        <v>3093.2484756364</v>
+        <v>3243.440951641321</v>
       </c>
       <c r="AD7" t="n">
-        <v>2499269.936372261</v>
+        <v>2620621.823524225</v>
       </c>
       <c r="AE7" t="n">
-        <v>3419611.386952556</v>
+        <v>3585650.392621301</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.092922818054226e-06</v>
+        <v>1.641225380199599e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.325</v>
       </c>
       <c r="AH7" t="n">
-        <v>3093248.4756364</v>
+        <v>3243440.951641321</v>
       </c>
     </row>
     <row r="8">
@@ -21174,28 +21174,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2382.088527163844</v>
+        <v>2511.450793185884</v>
       </c>
       <c r="AB8" t="n">
-        <v>3259.278613194673</v>
+        <v>3436.277772626431</v>
       </c>
       <c r="AC8" t="n">
-        <v>2948.217636777514</v>
+        <v>3108.324244852979</v>
       </c>
       <c r="AD8" t="n">
-        <v>2382088.527163844</v>
+        <v>2511450.793185884</v>
       </c>
       <c r="AE8" t="n">
-        <v>3259278.613194673</v>
+        <v>3436277.772626431</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.106126980193745e-06</v>
+        <v>1.661053867325736e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.9625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2948217.636777514</v>
+        <v>3108324.244852979</v>
       </c>
     </row>
     <row r="9">
@@ -21280,28 +21280,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2362.654960367788</v>
+        <v>2492.017226389828</v>
       </c>
       <c r="AB9" t="n">
-        <v>3232.688749755849</v>
+        <v>3409.687909187608</v>
       </c>
       <c r="AC9" t="n">
-        <v>2924.165472586184</v>
+        <v>3084.272080661649</v>
       </c>
       <c r="AD9" t="n">
-        <v>2362654.960367788</v>
+        <v>2492017.226389828</v>
       </c>
       <c r="AE9" t="n">
-        <v>3232688.749755849</v>
+        <v>3409687.909187607</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.109308706010497e-06</v>
+        <v>1.66583181603083e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>29.87708333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2924165.472586184</v>
+        <v>3084272.080661649</v>
       </c>
     </row>
     <row r="10">
@@ -21386,28 +21386,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2371.59019451702</v>
+        <v>2500.95246053906</v>
       </c>
       <c r="AB10" t="n">
-        <v>3244.914331313538</v>
+        <v>3421.913490745297</v>
       </c>
       <c r="AC10" t="n">
-        <v>2935.224261798719</v>
+        <v>3095.330869874184</v>
       </c>
       <c r="AD10" t="n">
-        <v>2371590.19451702</v>
+        <v>2500952.46053906</v>
       </c>
       <c r="AE10" t="n">
-        <v>3244914.331313538</v>
+        <v>3421913.490745297</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.109626878592172e-06</v>
+        <v>1.666309610901339e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29.86875</v>
       </c>
       <c r="AH10" t="n">
-        <v>2935224.261798719</v>
+        <v>3095330.869874184</v>
       </c>
     </row>
     <row r="11">
@@ -21492,28 +21492,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2384.813985152648</v>
+        <v>2514.176251174687</v>
       </c>
       <c r="AB11" t="n">
-        <v>3263.007705053674</v>
+        <v>3440.006864485431</v>
       </c>
       <c r="AC11" t="n">
-        <v>2951.590829343305</v>
+        <v>3111.69743741877</v>
       </c>
       <c r="AD11" t="n">
-        <v>2384813.985152647</v>
+        <v>2514176.251174687</v>
       </c>
       <c r="AE11" t="n">
-        <v>3263007.705053674</v>
+        <v>3440006.864485431</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.109626878592172e-06</v>
+        <v>1.666309610901339e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.86875</v>
       </c>
       <c r="AH11" t="n">
-        <v>2951590.829343305</v>
+        <v>3111697.43741877</v>
       </c>
     </row>
   </sheetData>
@@ -21789,28 +21789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4486.551772632441</v>
+        <v>4667.119506741146</v>
       </c>
       <c r="AB2" t="n">
-        <v>6138.698068010876</v>
+        <v>6385.758807904634</v>
       </c>
       <c r="AC2" t="n">
-        <v>5552.829340116537</v>
+        <v>5776.310949746749</v>
       </c>
       <c r="AD2" t="n">
-        <v>4486551.772632441</v>
+        <v>4667119.506741147</v>
       </c>
       <c r="AE2" t="n">
-        <v>6138698.068010876</v>
+        <v>6385758.807904634</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.869813896644333e-07</v>
+        <v>1.207030147828248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.87083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5552829.340116537</v>
+        <v>5776310.949746749</v>
       </c>
     </row>
     <row r="3">
@@ -21895,28 +21895,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2844.426849325484</v>
+        <v>2977.930861844831</v>
       </c>
       <c r="AB3" t="n">
-        <v>3891.870302503497</v>
+        <v>4074.53638221383</v>
       </c>
       <c r="AC3" t="n">
-        <v>3520.435663106691</v>
+        <v>3685.668348542917</v>
       </c>
       <c r="AD3" t="n">
-        <v>2844426.849325484</v>
+        <v>2977930.861844831</v>
       </c>
       <c r="AE3" t="n">
-        <v>3891870.302503496</v>
+        <v>4074536.38221383</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.009702591540407e-06</v>
+        <v>1.548628067112553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.19375</v>
       </c>
       <c r="AH3" t="n">
-        <v>3520435.663106691</v>
+        <v>3685668.348542917</v>
       </c>
     </row>
     <row r="4">
@@ -22001,28 +22001,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2430.055163855795</v>
+        <v>2563.47374601202</v>
       </c>
       <c r="AB4" t="n">
-        <v>3324.908681655265</v>
+        <v>3507.457871773852</v>
       </c>
       <c r="AC4" t="n">
-        <v>3007.584063616604</v>
+        <v>3172.711015239664</v>
       </c>
       <c r="AD4" t="n">
-        <v>2430055.163855795</v>
+        <v>2563473.746012019</v>
       </c>
       <c r="AE4" t="n">
-        <v>3324908.681655265</v>
+        <v>3507457.871773852</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.086594435045207e-06</v>
+        <v>1.666560682103563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.775</v>
       </c>
       <c r="AH4" t="n">
-        <v>3007584.063616605</v>
+        <v>3172711.015239664</v>
       </c>
     </row>
     <row r="5">
@@ -22107,28 +22107,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2207.243279839416</v>
+        <v>2332.889010858132</v>
       </c>
       <c r="AB5" t="n">
-        <v>3020.047632177465</v>
+        <v>3191.961664455722</v>
       </c>
       <c r="AC5" t="n">
-        <v>2731.818524825807</v>
+        <v>2887.32532314628</v>
       </c>
       <c r="AD5" t="n">
-        <v>2207243.279839416</v>
+        <v>2332889.010858132</v>
       </c>
       <c r="AE5" t="n">
-        <v>3020047.632177466</v>
+        <v>3191961.664455722</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.125703217517476e-06</v>
+        <v>1.726543650073129e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.66875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2731818.524825807</v>
+        <v>2887325.32314628</v>
       </c>
     </row>
     <row r="6">
@@ -22213,28 +22213,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2122.277131313957</v>
+        <v>2240.064759849146</v>
       </c>
       <c r="AB6" t="n">
-        <v>2903.793199322839</v>
+        <v>3064.955429108285</v>
       </c>
       <c r="AC6" t="n">
-        <v>2626.659251878818</v>
+        <v>2772.440384646037</v>
       </c>
       <c r="AD6" t="n">
-        <v>2122277.131313957</v>
+        <v>2240064.759849146</v>
       </c>
       <c r="AE6" t="n">
-        <v>2903793.199322839</v>
+        <v>3064955.429108285</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.139623292634725e-06</v>
+        <v>1.747893520028398e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.29583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2626659.251878818</v>
+        <v>2772440.384646037</v>
       </c>
     </row>
     <row r="7">
@@ -22319,28 +22319,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2130.948454070171</v>
+        <v>2248.73608260536</v>
       </c>
       <c r="AB7" t="n">
-        <v>2915.657685669651</v>
+        <v>3076.819915455098</v>
       </c>
       <c r="AC7" t="n">
-        <v>2637.391408300602</v>
+        <v>2783.17254106782</v>
       </c>
       <c r="AD7" t="n">
-        <v>2130948.454070171</v>
+        <v>2248736.08260536</v>
       </c>
       <c r="AE7" t="n">
-        <v>2915657.685669651</v>
+        <v>3076819.915455098</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.140617583714528e-06</v>
+        <v>1.749418510739489e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.26875</v>
       </c>
       <c r="AH7" t="n">
-        <v>2637391.408300602</v>
+        <v>2783172.54106782</v>
       </c>
     </row>
   </sheetData>
@@ -41757,28 +41757,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3321.681869567477</v>
+        <v>3482.544649750253</v>
       </c>
       <c r="AB2" t="n">
-        <v>4544.871676204133</v>
+        <v>4764.971228815219</v>
       </c>
       <c r="AC2" t="n">
-        <v>4111.115502194499</v>
+        <v>4310.209062416036</v>
       </c>
       <c r="AD2" t="n">
-        <v>3321681.869567477</v>
+        <v>3482544.649750253</v>
       </c>
       <c r="AE2" t="n">
-        <v>4544871.676204133</v>
+        <v>4764971.228815218</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.970655806627738e-07</v>
+        <v>1.401647274839083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.80833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4111115.502194499</v>
+        <v>4310209.062416036</v>
       </c>
     </row>
     <row r="3">
@@ -41863,28 +41863,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2263.138179231667</v>
+        <v>2393.41325990865</v>
       </c>
       <c r="AB3" t="n">
-        <v>3096.525499434874</v>
+        <v>3274.773612148066</v>
       </c>
       <c r="AC3" t="n">
-        <v>2800.997451769527</v>
+        <v>2962.233814778161</v>
       </c>
       <c r="AD3" t="n">
-        <v>2263138.179231667</v>
+        <v>2393413.25990865</v>
       </c>
       <c r="AE3" t="n">
-        <v>3096525.499434874</v>
+        <v>3274773.612148066</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.091975491844424e-06</v>
+        <v>1.706190166391163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.70625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2800997.451769528</v>
+        <v>2962233.814778161</v>
       </c>
     </row>
     <row r="4">
@@ -41969,28 +41969,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1958.627223427026</v>
+        <v>2081.234044013917</v>
       </c>
       <c r="AB4" t="n">
-        <v>2679.880175627547</v>
+        <v>2847.636236585704</v>
       </c>
       <c r="AC4" t="n">
-        <v>2424.116172901102</v>
+        <v>2575.861830848524</v>
       </c>
       <c r="AD4" t="n">
-        <v>1958627.223427026</v>
+        <v>2081234.044013917</v>
       </c>
       <c r="AE4" t="n">
-        <v>2679880.175627546</v>
+        <v>2847636.236585705</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.154545516102385e-06</v>
+        <v>1.803954595077627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.93333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2424116.172901102</v>
+        <v>2575861.830848524</v>
       </c>
     </row>
     <row r="5">
@@ -42075,28 +42075,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1940.567837393452</v>
+        <v>2063.174657980344</v>
       </c>
       <c r="AB5" t="n">
-        <v>2655.170526932529</v>
+        <v>2822.926587890687</v>
       </c>
       <c r="AC5" t="n">
-        <v>2401.764778397328</v>
+        <v>2553.510436344749</v>
       </c>
       <c r="AD5" t="n">
-        <v>1940567.837393452</v>
+        <v>2063174.657980344</v>
       </c>
       <c r="AE5" t="n">
-        <v>2655170.526932529</v>
+        <v>2822926.587890687</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.160202531994201e-06</v>
+        <v>1.812793570821882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2401764.778397328</v>
+        <v>2553510.436344749</v>
       </c>
     </row>
     <row r="6">
@@ -42181,28 +42181,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1956.361369001318</v>
+        <v>2078.968189588209</v>
       </c>
       <c r="AB6" t="n">
-        <v>2676.779933639849</v>
+        <v>2844.535994598008</v>
       </c>
       <c r="AC6" t="n">
-        <v>2421.311813657495</v>
+        <v>2573.057471604916</v>
       </c>
       <c r="AD6" t="n">
-        <v>1956361.369001318</v>
+        <v>2078968.189588209</v>
       </c>
       <c r="AE6" t="n">
-        <v>2676779.93363985</v>
+        <v>2844535.994598008</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.160202531994201e-06</v>
+        <v>1.812793570821882e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.78125</v>
       </c>
       <c r="AH6" t="n">
-        <v>2421311.813657495</v>
+        <v>2573057.471604916</v>
       </c>
     </row>
   </sheetData>
@@ -42478,28 +42478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1691.69256071262</v>
+        <v>1822.773489868441</v>
       </c>
       <c r="AB2" t="n">
-        <v>2314.648393775508</v>
+        <v>2493.999103928962</v>
       </c>
       <c r="AC2" t="n">
-        <v>2093.741599702998</v>
+        <v>2255.975329799708</v>
       </c>
       <c r="AD2" t="n">
-        <v>1691692.56071262</v>
+        <v>1822773.489868441</v>
       </c>
       <c r="AE2" t="n">
-        <v>2314648.393775508</v>
+        <v>2493999.103928962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.136512544437842e-06</v>
+        <v>1.852147368634131e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.72916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2093741.599702997</v>
+        <v>2255975.329799708</v>
       </c>
     </row>
     <row r="3">
@@ -42584,28 +42584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1616.470491714388</v>
+        <v>1740.345005565616</v>
       </c>
       <c r="AB3" t="n">
-        <v>2211.726240408655</v>
+        <v>2381.216815217759</v>
       </c>
       <c r="AC3" t="n">
-        <v>2000.642192201327</v>
+        <v>2153.956824432166</v>
       </c>
       <c r="AD3" t="n">
-        <v>1616470.491714388</v>
+        <v>1740345.005565616</v>
       </c>
       <c r="AE3" t="n">
-        <v>2211726.240408655</v>
+        <v>2381216.815217759</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.163743215730832e-06</v>
+        <v>1.89652454372849e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.93958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2000642.192201327</v>
+        <v>2153956.824432166</v>
       </c>
     </row>
   </sheetData>
@@ -42881,28 +42881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9450.625414324903</v>
+        <v>9707.582456577045</v>
       </c>
       <c r="AB2" t="n">
-        <v>12930.76262404775</v>
+        <v>13282.3425854018</v>
       </c>
       <c r="AC2" t="n">
-        <v>11696.66878764748</v>
+        <v>12014.69445093545</v>
       </c>
       <c r="AD2" t="n">
-        <v>9450625.414324902</v>
+        <v>9707582.456577046</v>
       </c>
       <c r="AE2" t="n">
-        <v>12930762.62404775</v>
+        <v>13282342.5854018</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.443911220063348e-07</v>
+        <v>8.04272993938544e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.89166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>11696668.78764747</v>
+        <v>12014694.45093545</v>
       </c>
     </row>
     <row r="3">
@@ -42987,28 +42987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>4567.368358742073</v>
+        <v>4733.226930671925</v>
       </c>
       <c r="AB3" t="n">
-        <v>6249.274886502229</v>
+        <v>6476.20990178044</v>
       </c>
       <c r="AC3" t="n">
-        <v>5652.85286224661</v>
+        <v>5858.129518171954</v>
       </c>
       <c r="AD3" t="n">
-        <v>4567368.358742073</v>
+        <v>4733226.930671926</v>
       </c>
       <c r="AE3" t="n">
-        <v>6249274.886502229</v>
+        <v>6476209.90178044</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.265882157767186e-07</v>
+        <v>1.221185563436365e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.77916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>5652852.86224661</v>
+        <v>5858129.518171954</v>
       </c>
     </row>
     <row r="4">
@@ -43093,28 +43093,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3733.052820168121</v>
+        <v>3882.317000819531</v>
       </c>
       <c r="AB4" t="n">
-        <v>5107.727559221457</v>
+        <v>5311.957396259626</v>
       </c>
       <c r="AC4" t="n">
-        <v>4620.253209709822</v>
+        <v>4804.991637739437</v>
       </c>
       <c r="AD4" t="n">
-        <v>3733052.820168121</v>
+        <v>3882317.000819531</v>
       </c>
       <c r="AE4" t="n">
-        <v>5107727.559221458</v>
+        <v>5311957.396259626</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.276806315930447e-07</v>
+        <v>1.37053755807108e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>34.55416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>4620253.209709822</v>
+        <v>4804991.637739438</v>
       </c>
     </row>
     <row r="5">
@@ -43199,28 +43199,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3368.882689283328</v>
+        <v>3509.849674295517</v>
       </c>
       <c r="AB5" t="n">
-        <v>4609.453920092564</v>
+        <v>4802.331168010715</v>
       </c>
       <c r="AC5" t="n">
-        <v>4169.534107367966</v>
+        <v>4344.003421449717</v>
       </c>
       <c r="AD5" t="n">
-        <v>3368882.689283328</v>
+        <v>3509849.674295517</v>
       </c>
       <c r="AE5" t="n">
-        <v>4609453.920092564</v>
+        <v>4802331.168010715</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.799963414523307e-07</v>
+        <v>1.447827783605027e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.70833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>4169534.107367965</v>
+        <v>4344003.421449717</v>
       </c>
     </row>
     <row r="6">
@@ -43305,28 +43305,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3153.117066061923</v>
+        <v>3285.872196289461</v>
       </c>
       <c r="AB6" t="n">
-        <v>4314.233875493535</v>
+        <v>4495.875301413863</v>
       </c>
       <c r="AC6" t="n">
-        <v>3902.489449481543</v>
+        <v>4066.79527264737</v>
       </c>
       <c r="AD6" t="n">
-        <v>3153117.066061923</v>
+        <v>3285872.196289462</v>
       </c>
       <c r="AE6" t="n">
-        <v>4314233.875493536</v>
+        <v>4495875.301413863</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.012001246307423e-06</v>
+        <v>1.495111215696383e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.675</v>
       </c>
       <c r="AH6" t="n">
-        <v>3902489.449481544</v>
+        <v>4066795.272647371</v>
       </c>
     </row>
     <row r="7">
@@ -43411,28 +43411,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3011.170831310912</v>
+        <v>3143.755369337859</v>
       </c>
       <c r="AB7" t="n">
-        <v>4120.016774881281</v>
+        <v>4301.424789026762</v>
       </c>
       <c r="AC7" t="n">
-        <v>3726.808156366317</v>
+        <v>3890.902844249492</v>
       </c>
       <c r="AD7" t="n">
-        <v>3011170.831310913</v>
+        <v>3143755.369337859</v>
       </c>
       <c r="AE7" t="n">
-        <v>4120016.774881281</v>
+        <v>4301424.789026761</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.033389139455778e-06</v>
+        <v>1.526709278488203e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.02083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>3726808.156366317</v>
+        <v>3890902.844249492</v>
       </c>
     </row>
     <row r="8">
@@ -43517,28 +43517,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2886.752956430863</v>
+        <v>3019.422745803831</v>
       </c>
       <c r="AB8" t="n">
-        <v>3949.782749541137</v>
+        <v>4131.307408339267</v>
       </c>
       <c r="AC8" t="n">
-        <v>3572.821027479688</v>
+        <v>3737.021227613576</v>
       </c>
       <c r="AD8" t="n">
-        <v>2886752.956430863</v>
+        <v>3019422.745803831</v>
       </c>
       <c r="AE8" t="n">
-        <v>3949782.749541137</v>
+        <v>4131307.408339267</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.049083852413564e-06</v>
+        <v>1.549896346148387e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.55416666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>3572821.027479688</v>
+        <v>3737021.227613576</v>
       </c>
     </row>
     <row r="9">
@@ -43623,28 +43623,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2782.01732548053</v>
+        <v>2906.390008722828</v>
       </c>
       <c r="AB9" t="n">
-        <v>3806.478838664952</v>
+        <v>3976.65103081261</v>
       </c>
       <c r="AC9" t="n">
-        <v>3443.193840729229</v>
+        <v>3597.125037696479</v>
       </c>
       <c r="AD9" t="n">
-        <v>2782017.32548053</v>
+        <v>2906390.008722828</v>
       </c>
       <c r="AE9" t="n">
-        <v>3806478.838664952</v>
+        <v>3976651.03081261</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.061855040408625e-06</v>
+        <v>1.56876425414638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.1875</v>
       </c>
       <c r="AH9" t="n">
-        <v>3443193.840729229</v>
+        <v>3597125.037696479</v>
       </c>
     </row>
     <row r="10">
@@ -43729,28 +43729,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2681.444486524379</v>
+        <v>2814.028935042775</v>
       </c>
       <c r="AB10" t="n">
-        <v>3668.870643444629</v>
+        <v>3850.27853512056</v>
       </c>
       <c r="AC10" t="n">
-        <v>3318.718778526424</v>
+        <v>3482.813355628373</v>
       </c>
       <c r="AD10" t="n">
-        <v>2681444.486524379</v>
+        <v>2814028.935042775</v>
       </c>
       <c r="AE10" t="n">
-        <v>3668870.643444629</v>
+        <v>3850278.53512056</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.071702703440962e-06</v>
+        <v>1.583313002482182e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29.9125</v>
       </c>
       <c r="AH10" t="n">
-        <v>3318718.778526424</v>
+        <v>3482813.355628373</v>
       </c>
     </row>
     <row r="11">
@@ -43835,28 +43835,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2613.653332035991</v>
+        <v>2746.237780554388</v>
       </c>
       <c r="AB11" t="n">
-        <v>3576.115795138951</v>
+        <v>3757.523686814883</v>
       </c>
       <c r="AC11" t="n">
-        <v>3234.816322760796</v>
+        <v>3398.910899862744</v>
       </c>
       <c r="AD11" t="n">
-        <v>2613653.332035991</v>
+        <v>2746237.780554388</v>
       </c>
       <c r="AE11" t="n">
-        <v>3576115.795138951</v>
+        <v>3757523.686814883</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.078472971775692e-06</v>
+        <v>1.593315266963045e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.72291666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>3234816.322760796</v>
+        <v>3398910.899862744</v>
       </c>
     </row>
     <row r="12">
@@ -43941,28 +43941,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2590.001036099869</v>
+        <v>2714.458970688187</v>
       </c>
       <c r="AB12" t="n">
-        <v>3543.753680373494</v>
+        <v>3714.0425171738</v>
       </c>
       <c r="AC12" t="n">
-        <v>3205.542802808042</v>
+        <v>3359.579512026004</v>
       </c>
       <c r="AD12" t="n">
-        <v>2590001.036099869</v>
+        <v>2714458.970688187</v>
       </c>
       <c r="AE12" t="n">
-        <v>3543753.680373494</v>
+        <v>3714042.5171738</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.080781017798896e-06</v>
+        <v>1.596725129854249e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>30</v>
+        <v>29.66041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>3205542.802808042</v>
+        <v>3359579.512026004</v>
       </c>
     </row>
     <row r="13">
@@ -44047,28 +44047,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>2596.027580205705</v>
+        <v>2720.485514794024</v>
       </c>
       <c r="AB13" t="n">
-        <v>3551.999463891461</v>
+        <v>3722.288300691768</v>
       </c>
       <c r="AC13" t="n">
-        <v>3213.001620320084</v>
+        <v>3367.038329538047</v>
       </c>
       <c r="AD13" t="n">
-        <v>2596027.580205705</v>
+        <v>2720485.514794024</v>
       </c>
       <c r="AE13" t="n">
-        <v>3551999.463891461</v>
+        <v>3722288.300691768</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.081088757268657e-06</v>
+        <v>1.597179778239743e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.65416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>3213001.620320085</v>
+        <v>3367038.329538047</v>
       </c>
     </row>
     <row r="14">
@@ -44153,28 +44153,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>2608.556632551154</v>
+        <v>2733.014567139473</v>
       </c>
       <c r="AB14" t="n">
-        <v>3569.142266053284</v>
+        <v>3739.431102853591</v>
       </c>
       <c r="AC14" t="n">
-        <v>3228.508337503656</v>
+        <v>3382.545046721618</v>
       </c>
       <c r="AD14" t="n">
-        <v>2608556.632551154</v>
+        <v>2733014.567139472</v>
       </c>
       <c r="AE14" t="n">
-        <v>3569142.266053285</v>
+        <v>3739431.102853591</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.081088757268657e-06</v>
+        <v>1.597179778239743e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.65416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>3228508.337503656</v>
+        <v>3382545.046721618</v>
       </c>
     </row>
   </sheetData>
@@ -44450,28 +44450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>15342.85378575506</v>
+        <v>15666.61385979218</v>
       </c>
       <c r="AB2" t="n">
-        <v>20992.76942860859</v>
+        <v>21435.75224519261</v>
       </c>
       <c r="AC2" t="n">
-        <v>18989.24897787833</v>
+        <v>19389.95413617784</v>
       </c>
       <c r="AD2" t="n">
-        <v>15342853.78575506</v>
+        <v>15666613.85979218</v>
       </c>
       <c r="AE2" t="n">
-        <v>20992769.42860859</v>
+        <v>21435752.24519261</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.205044200129496e-07</v>
+        <v>6.106434896777706e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.46041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>18989248.97787834</v>
+        <v>19389954.13617784</v>
       </c>
     </row>
     <row r="3">
@@ -44556,28 +44556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>5892.251371736128</v>
+        <v>6079.633061176511</v>
       </c>
       <c r="AB3" t="n">
-        <v>8062.038274594158</v>
+        <v>8318.422168783207</v>
       </c>
       <c r="AC3" t="n">
-        <v>7292.608656808372</v>
+        <v>7524.523631973066</v>
       </c>
       <c r="AD3" t="n">
-        <v>5892251.371736128</v>
+        <v>6079633.061176511</v>
       </c>
       <c r="AE3" t="n">
-        <v>8062038.274594158</v>
+        <v>8318422.168783207</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.311379742890882e-07</v>
+        <v>1.061735912412231e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.24583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>7292608.656808372</v>
+        <v>7524523.631973065</v>
       </c>
     </row>
     <row r="4">
@@ -44662,28 +44662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>4622.464329612358</v>
+        <v>4784.429662731213</v>
       </c>
       <c r="AB4" t="n">
-        <v>6324.659624509644</v>
+        <v>6546.267738689075</v>
       </c>
       <c r="AC4" t="n">
-        <v>5721.04298666174</v>
+        <v>5921.501133452819</v>
       </c>
       <c r="AD4" t="n">
-        <v>4622464.329612358</v>
+        <v>4784429.662731213</v>
       </c>
       <c r="AE4" t="n">
-        <v>6324659.624509645</v>
+        <v>6546267.738689074</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.448639581219275e-07</v>
+        <v>1.226885262406184e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.56458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>5721042.98666174</v>
+        <v>5921501.133452819</v>
       </c>
     </row>
     <row r="5">
@@ -44768,28 +44768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>4110.072841334051</v>
+        <v>4254.980298280044</v>
       </c>
       <c r="AB5" t="n">
-        <v>5623.582985130151</v>
+        <v>5821.851760589483</v>
       </c>
       <c r="AC5" t="n">
-        <v>5086.876117777407</v>
+        <v>5266.222399578869</v>
       </c>
       <c r="AD5" t="n">
-        <v>4110072.841334051</v>
+        <v>4254980.298280044</v>
       </c>
       <c r="AE5" t="n">
-        <v>5623582.985130151</v>
+        <v>5821851.760589483</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.050631099291412e-07</v>
+        <v>1.314304605427755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>35</v>
+        <v>34.13333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>5086876.117777407</v>
+        <v>5266222.399578869</v>
       </c>
     </row>
     <row r="6">
@@ -44874,28 +44874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>3821.411644732887</v>
+        <v>3966.319012170329</v>
       </c>
       <c r="AB6" t="n">
-        <v>5228.624001107201</v>
+        <v>5426.892654096987</v>
       </c>
       <c r="AC6" t="n">
-        <v>4729.611464861208</v>
+        <v>4908.957635881442</v>
       </c>
       <c r="AD6" t="n">
-        <v>3821411.644732887</v>
+        <v>3966319.012170329</v>
       </c>
       <c r="AE6" t="n">
-        <v>5228624.001107201</v>
+        <v>5426892.654096987</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.418350056143356e-07</v>
+        <v>1.367703612987729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>33</v>
+        <v>32.79583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>4729611.464861209</v>
+        <v>4908957.635881442</v>
       </c>
     </row>
     <row r="7">
@@ -44980,28 +44980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>3632.11597632661</v>
+        <v>3776.93800290948</v>
       </c>
       <c r="AB7" t="n">
-        <v>4969.621316458222</v>
+        <v>5167.773202325808</v>
       </c>
       <c r="AC7" t="n">
-        <v>4495.327632922586</v>
+        <v>4674.568180910881</v>
       </c>
       <c r="AD7" t="n">
-        <v>3632115.97632661</v>
+        <v>3776938.00290948</v>
       </c>
       <c r="AE7" t="n">
-        <v>4969621.316458222</v>
+        <v>5167773.202325808</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.668932732385205e-07</v>
+        <v>1.404092452816905e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>32</v>
+        <v>31.94791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>4495327.632922586</v>
+        <v>4674568.180910881</v>
       </c>
     </row>
     <row r="8">
@@ -45086,28 +45086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>3498.940843778354</v>
+        <v>3635.233977029068</v>
       </c>
       <c r="AB8" t="n">
-        <v>4787.405224833495</v>
+        <v>4973.887502575807</v>
       </c>
       <c r="AC8" t="n">
-        <v>4330.501989340639</v>
+        <v>4499.186660224739</v>
       </c>
       <c r="AD8" t="n">
-        <v>3498940.843778354</v>
+        <v>3635233.977029068</v>
       </c>
       <c r="AE8" t="n">
-        <v>4787405.224833495</v>
+        <v>4973887.502575807</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.852792210811176e-07</v>
+        <v>1.430791956596892e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>32</v>
+        <v>31.35208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>4330501.989340639</v>
+        <v>4499186.660224739</v>
       </c>
     </row>
     <row r="9">
@@ -45192,28 +45192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>3380.880171970003</v>
+        <v>3517.258556566738</v>
       </c>
       <c r="AB9" t="n">
-        <v>4625.869405196056</v>
+        <v>4812.468327591018</v>
       </c>
       <c r="AC9" t="n">
-        <v>4184.382921612457</v>
+        <v>4353.173104747269</v>
       </c>
       <c r="AD9" t="n">
-        <v>3380880.171970003</v>
+        <v>3517258.556566738</v>
       </c>
       <c r="AE9" t="n">
-        <v>4625869.405196056</v>
+        <v>4812468.327591019</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.996617770547625e-07</v>
+        <v>1.451677858747366e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="AH9" t="n">
-        <v>4184382.921612456</v>
+        <v>4353173.104747268</v>
       </c>
     </row>
     <row r="10">
@@ -45298,28 +45298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>3293.057802560041</v>
+        <v>3429.436187156776</v>
       </c>
       <c r="AB10" t="n">
-        <v>4505.706964919845</v>
+        <v>4692.305887314807</v>
       </c>
       <c r="AC10" t="n">
-        <v>4075.688615987168</v>
+        <v>4244.47879912198</v>
       </c>
       <c r="AD10" t="n">
-        <v>3293057.802560041</v>
+        <v>3429436.187156776</v>
       </c>
       <c r="AE10" t="n">
-        <v>4505706.964919845</v>
+        <v>4692305.887314808</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.010634036251151e-06</v>
+        <v>1.46761143358381e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>31</v>
+        <v>30.56666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>4075688.615987168</v>
+        <v>4244478.79912198</v>
       </c>
     </row>
     <row r="11">
@@ -45404,28 +45404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>3217.897802162639</v>
+        <v>3345.747293427218</v>
       </c>
       <c r="AB11" t="n">
-        <v>4402.869736550916</v>
+        <v>4577.799050820604</v>
       </c>
       <c r="AC11" t="n">
-        <v>3982.666028360816</v>
+        <v>4140.900334391433</v>
       </c>
       <c r="AD11" t="n">
-        <v>3217897.802162639</v>
+        <v>3345747.293427218</v>
       </c>
       <c r="AE11" t="n">
-        <v>4402869.736550916</v>
+        <v>4577799.050820604</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.019233915080753e-06</v>
+        <v>1.48009991115832e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>31</v>
+        <v>30.30625</v>
       </c>
       <c r="AH11" t="n">
-        <v>3982666.028360816</v>
+        <v>4140900.334391433</v>
       </c>
     </row>
     <row r="12">
@@ -45510,28 +45510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>3138.904055727144</v>
+        <v>3266.753546991723</v>
       </c>
       <c r="AB12" t="n">
-        <v>4294.787007719729</v>
+        <v>4469.716321989416</v>
       </c>
       <c r="AC12" t="n">
-        <v>3884.898563474218</v>
+        <v>4043.132869504835</v>
       </c>
       <c r="AD12" t="n">
-        <v>3138904.055727144</v>
+        <v>3266753.546991723</v>
       </c>
       <c r="AE12" t="n">
-        <v>4294787.007719729</v>
+        <v>4469716.321989416</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.026795877499886e-06</v>
+        <v>1.491081158680734e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>31</v>
+        <v>30.08125</v>
       </c>
       <c r="AH12" t="n">
-        <v>3884898.563474218</v>
+        <v>4043132.869504835</v>
       </c>
     </row>
     <row r="13">
@@ -45616,28 +45616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>3072.071137878948</v>
+        <v>3208.364181621111</v>
       </c>
       <c r="AB13" t="n">
-        <v>4203.343261059576</v>
+        <v>4389.825416332342</v>
       </c>
       <c r="AC13" t="n">
-        <v>3802.182079653211</v>
+        <v>3970.866639756085</v>
       </c>
       <c r="AD13" t="n">
-        <v>3072071.137878948</v>
+        <v>3208364.181621111</v>
       </c>
       <c r="AE13" t="n">
-        <v>4203343.261059577</v>
+        <v>4389825.416332342</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.032875102189777e-06</v>
+        <v>1.499909220414439e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>30</v>
+        <v>29.90625</v>
       </c>
       <c r="AH13" t="n">
-        <v>3802182.079653211</v>
+        <v>3970866.639756085</v>
       </c>
     </row>
     <row r="14">
@@ -45722,28 +45722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>3016.274513279412</v>
+        <v>3152.567557021574</v>
       </c>
       <c r="AB14" t="n">
-        <v>4126.999857709138</v>
+        <v>4313.482012981904</v>
       </c>
       <c r="AC14" t="n">
-        <v>3733.124783569902</v>
+        <v>3901.809343672776</v>
       </c>
       <c r="AD14" t="n">
-        <v>3016274.513279411</v>
+        <v>3152567.557021574</v>
       </c>
       <c r="AE14" t="n">
-        <v>4126999.857709139</v>
+        <v>4313482.012981904</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.037768136696274e-06</v>
+        <v>1.507014733517178e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>30</v>
+        <v>29.76458333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>3733124.783569902</v>
+        <v>3901809.343672776</v>
       </c>
     </row>
     <row r="15">
@@ -45828,28 +45828,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>2954.212838365022</v>
+        <v>3082.147580975622</v>
       </c>
       <c r="AB15" t="n">
-        <v>4042.084336123407</v>
+        <v>4217.130295045743</v>
       </c>
       <c r="AC15" t="n">
-        <v>3656.313480184632</v>
+        <v>3814.653298465961</v>
       </c>
       <c r="AD15" t="n">
-        <v>2954212.838365022</v>
+        <v>3082147.580975622</v>
       </c>
       <c r="AE15" t="n">
-        <v>4042084.336123406</v>
+        <v>4217130.295045743</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.042512897429848e-06</v>
+        <v>1.513904928041045e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>30</v>
+        <v>29.62916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>3656313.480184632</v>
+        <v>3814653.298465961</v>
       </c>
     </row>
     <row r="16">
@@ -45934,28 +45934,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>2904.046565260462</v>
+        <v>3031.981307871061</v>
       </c>
       <c r="AB16" t="n">
-        <v>3973.444628081972</v>
+        <v>4148.490587004309</v>
       </c>
       <c r="AC16" t="n">
-        <v>3594.22464954224</v>
+        <v>3752.564467823568</v>
       </c>
       <c r="AD16" t="n">
-        <v>2904046.565260462</v>
+        <v>3031981.307871061</v>
       </c>
       <c r="AE16" t="n">
-        <v>3973444.628081972</v>
+        <v>4148490.587004309</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.046071467980028e-06</v>
+        <v>1.519072573933946e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>30</v>
+        <v>29.52916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>3594224.649542239</v>
+        <v>3752564.467823568</v>
       </c>
     </row>
     <row r="17">
@@ -46040,28 +46040,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>2890.414058563051</v>
+        <v>3018.34880117365</v>
       </c>
       <c r="AB17" t="n">
-        <v>3954.792030994823</v>
+        <v>4129.837989917161</v>
       </c>
       <c r="AC17" t="n">
-        <v>3577.352230142005</v>
+        <v>3735.692048423334</v>
       </c>
       <c r="AD17" t="n">
-        <v>2890414.058563051</v>
+        <v>3018348.80117365</v>
       </c>
       <c r="AE17" t="n">
-        <v>3954792.030994823</v>
+        <v>4129837.989917161</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.046961110617573e-06</v>
+        <v>1.520364485407171e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>30</v>
+        <v>29.50208333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>3577352.230142005</v>
+        <v>3735692.048423334</v>
       </c>
     </row>
     <row r="18">
@@ -46146,28 +46146,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>2902.123449329305</v>
+        <v>3029.887599739312</v>
       </c>
       <c r="AB18" t="n">
-        <v>3970.813336023075</v>
+        <v>4145.625883170565</v>
       </c>
       <c r="AC18" t="n">
-        <v>3591.844484304402</v>
+        <v>3749.973167303081</v>
       </c>
       <c r="AD18" t="n">
-        <v>2902123.449329305</v>
+        <v>3029887.599739313</v>
       </c>
       <c r="AE18" t="n">
-        <v>3970813.336023075</v>
+        <v>4145625.883170566</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.04755420570927e-06</v>
+        <v>1.521225759722655e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>30</v>
+        <v>29.4875</v>
       </c>
       <c r="AH18" t="n">
-        <v>3591844.484304402</v>
+        <v>3749973.167303081</v>
       </c>
     </row>
     <row r="19">
@@ -46252,28 +46252,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>2913.560420426573</v>
+        <v>3041.324570836581</v>
       </c>
       <c r="AB19" t="n">
-        <v>3986.461904441913</v>
+        <v>4161.274451589403</v>
       </c>
       <c r="AC19" t="n">
-        <v>3605.999575316249</v>
+        <v>3764.128258314927</v>
       </c>
       <c r="AD19" t="n">
-        <v>2913560.420426573</v>
+        <v>3041324.570836581</v>
       </c>
       <c r="AE19" t="n">
-        <v>3986461.904441913</v>
+        <v>4161274.451589403</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.04755420570927e-06</v>
+        <v>1.521225759722655e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>30</v>
+        <v>29.48958333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>3605999.575316249</v>
+        <v>3764128.258314927</v>
       </c>
     </row>
     <row r="20">
@@ -46358,28 +46358,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>2925.439541426522</v>
+        <v>3053.203691836529</v>
       </c>
       <c r="AB20" t="n">
-        <v>4002.715441863875</v>
+        <v>4177.527989011366</v>
       </c>
       <c r="AC20" t="n">
-        <v>3620.701897938642</v>
+        <v>3778.830580937321</v>
       </c>
       <c r="AD20" t="n">
-        <v>2925439.541426522</v>
+        <v>3053203.691836529</v>
       </c>
       <c r="AE20" t="n">
-        <v>4002715.441863875</v>
+        <v>4177527.989011366</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.047405931936346e-06</v>
+        <v>1.521010441143784e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>30</v>
+        <v>29.49166666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>3620701.897938642</v>
+        <v>3778830.58093732</v>
       </c>
     </row>
   </sheetData>
@@ -46655,28 +46655,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1465.121728723601</v>
+        <v>1593.033087987709</v>
       </c>
       <c r="AB2" t="n">
-        <v>2004.644185848479</v>
+        <v>2179.658150644535</v>
       </c>
       <c r="AC2" t="n">
-        <v>1813.323758286886</v>
+        <v>1971.634635916449</v>
       </c>
       <c r="AD2" t="n">
-        <v>1465121.728723601</v>
+        <v>1593033.087987709</v>
       </c>
       <c r="AE2" t="n">
-        <v>2004644.185848479</v>
+        <v>2179658.150644536</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.1246579305865e-06</v>
+        <v>1.874737764245839e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.29583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1813323.758286886</v>
+        <v>1971634.635916449</v>
       </c>
     </row>
   </sheetData>
@@ -46952,28 +46952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5126.700960323051</v>
+        <v>5317.15126203349</v>
       </c>
       <c r="AB2" t="n">
-        <v>7014.578427998203</v>
+        <v>7275.160932872761</v>
       </c>
       <c r="AC2" t="n">
-        <v>6345.116907852444</v>
+        <v>6580.829784191609</v>
       </c>
       <c r="AD2" t="n">
-        <v>5126700.960323051</v>
+        <v>5317151.26203349</v>
       </c>
       <c r="AE2" t="n">
-        <v>7014578.427998203</v>
+        <v>7275160.932872761</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.395845435685528e-07</v>
+        <v>1.125578614180107e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>46</v>
       </c>
       <c r="AH2" t="n">
-        <v>6345116.907852445</v>
+        <v>6580829.784191609</v>
       </c>
     </row>
     <row r="3">
@@ -47058,28 +47058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3121.167780050108</v>
+        <v>3264.048176760222</v>
       </c>
       <c r="AB3" t="n">
-        <v>4270.519452869147</v>
+        <v>4466.014715086165</v>
       </c>
       <c r="AC3" t="n">
-        <v>3862.947069998851</v>
+        <v>4039.784538769192</v>
       </c>
       <c r="AD3" t="n">
-        <v>3121167.780050108</v>
+        <v>3264048.176760222</v>
       </c>
       <c r="AE3" t="n">
-        <v>4270519.452869147</v>
+        <v>4466014.715086165</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.735930776674125e-07</v>
+        <v>1.481717751764583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.94583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>3862947.069998851</v>
+        <v>4039784.538769192</v>
       </c>
     </row>
     <row r="4">
@@ -47164,28 +47164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2660.636827844733</v>
+        <v>2787.632232111766</v>
       </c>
       <c r="AB4" t="n">
-        <v>3640.400686870022</v>
+        <v>3814.161401630009</v>
       </c>
       <c r="AC4" t="n">
-        <v>3292.965954649463</v>
+        <v>3450.143190667445</v>
       </c>
       <c r="AD4" t="n">
-        <v>2660636.827844733</v>
+        <v>2787632.232111766</v>
       </c>
       <c r="AE4" t="n">
-        <v>3640400.686870022</v>
+        <v>3814161.401630009</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.05540624974245e-06</v>
+        <v>1.606229760089651e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>33</v>
+        <v>32.23541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>3292965.954649463</v>
+        <v>3450143.190667445</v>
       </c>
     </row>
     <row r="5">
@@ -47270,28 +47270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2424.800570900908</v>
+        <v>2543.938775046696</v>
       </c>
       <c r="AB5" t="n">
-        <v>3317.719115758107</v>
+        <v>3480.729262677002</v>
       </c>
       <c r="AC5" t="n">
-        <v>3001.080659798053</v>
+        <v>3148.53334708118</v>
       </c>
       <c r="AD5" t="n">
-        <v>2424800.570900908</v>
+        <v>2543938.775046696</v>
       </c>
       <c r="AE5" t="n">
-        <v>3317719.115758107</v>
+        <v>3480729.262677002</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.096884384886281e-06</v>
+        <v>1.669355608621722e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>31.01458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>3001080.659798053</v>
+        <v>3148533.34708118</v>
       </c>
     </row>
     <row r="6">
@@ -47376,28 +47376,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2256.026180894441</v>
+        <v>2375.079044185659</v>
       </c>
       <c r="AB6" t="n">
-        <v>3086.794549550658</v>
+        <v>3249.687929347355</v>
       </c>
       <c r="AC6" t="n">
-        <v>2792.195210084787</v>
+        <v>2939.542274335975</v>
       </c>
       <c r="AD6" t="n">
-        <v>2256026.180894441</v>
+        <v>2375079.044185659</v>
       </c>
       <c r="AE6" t="n">
-        <v>3086794.549550658</v>
+        <v>3249687.929347355</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.121869245819377e-06</v>
+        <v>1.707380233918599e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>31</v>
+        <v>30.325</v>
       </c>
       <c r="AH6" t="n">
-        <v>2792195.210084787</v>
+        <v>2939542.274335975</v>
       </c>
     </row>
     <row r="7">
@@ -47482,28 +47482,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2207.7166786292</v>
+        <v>2326.769541920417</v>
       </c>
       <c r="AB7" t="n">
-        <v>3020.695357286528</v>
+        <v>3183.588737083225</v>
       </c>
       <c r="AC7" t="n">
-        <v>2732.404431959549</v>
+        <v>2879.751496210737</v>
       </c>
       <c r="AD7" t="n">
-        <v>2207716.6786292</v>
+        <v>2326769.541920417</v>
       </c>
       <c r="AE7" t="n">
-        <v>3020695.357286528</v>
+        <v>3183588.737083225</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.129707633563093e-06</v>
+        <v>1.719309528129384e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.11666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2732404.431959549</v>
+        <v>2879751.496210737</v>
       </c>
     </row>
     <row r="8">
@@ -47588,28 +47588,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2219.218160587765</v>
+        <v>2338.271023878982</v>
       </c>
       <c r="AB8" t="n">
-        <v>3036.43219231181</v>
+        <v>3199.325572108507</v>
       </c>
       <c r="AC8" t="n">
-        <v>2746.639365536804</v>
+        <v>2893.986429787993</v>
       </c>
       <c r="AD8" t="n">
-        <v>2219218.160587765</v>
+        <v>2338271.023878982</v>
       </c>
       <c r="AE8" t="n">
-        <v>3036432.19231181</v>
+        <v>3199325.572108507</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.130034233052414e-06</v>
+        <v>1.719806582054833e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.10625</v>
       </c>
       <c r="AH8" t="n">
-        <v>2746639.365536804</v>
+        <v>2893986.429787992</v>
       </c>
     </row>
     <row r="9">
@@ -47694,28 +47694,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2232.967750224614</v>
+        <v>2352.020613515831</v>
       </c>
       <c r="AB9" t="n">
-        <v>3055.244987442032</v>
+        <v>3218.138367238729</v>
       </c>
       <c r="AC9" t="n">
-        <v>2763.656693903721</v>
+        <v>2911.00375815491</v>
       </c>
       <c r="AD9" t="n">
-        <v>2232967.750224614</v>
+        <v>2352020.613515831</v>
       </c>
       <c r="AE9" t="n">
-        <v>3055244.987442032</v>
+        <v>3218138.367238729</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.129870933307754e-06</v>
+        <v>1.719558055092108e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>31</v>
+        <v>30.10833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2763656.693903721</v>
+        <v>2911003.75815491</v>
       </c>
     </row>
   </sheetData>
@@ -47991,28 +47991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7460.172915795284</v>
+        <v>7680.490294726535</v>
       </c>
       <c r="AB2" t="n">
-        <v>10207.33770299264</v>
+        <v>10508.78566056317</v>
       </c>
       <c r="AC2" t="n">
-        <v>9233.163718707081</v>
+        <v>9505.841906291929</v>
       </c>
       <c r="AD2" t="n">
-        <v>7460172.915795284</v>
+        <v>7680490.294726535</v>
       </c>
       <c r="AE2" t="n">
-        <v>10207337.70299264</v>
+        <v>10508785.66056317</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.152122362071559e-07</v>
+        <v>9.184569265264532e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.23541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>9233163.718707081</v>
+        <v>9505841.90629193</v>
       </c>
     </row>
     <row r="3">
@@ -48097,28 +48097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3974.036319268191</v>
+        <v>4129.023928975192</v>
       </c>
       <c r="AB3" t="n">
-        <v>5437.451814131842</v>
+        <v>5649.512699303742</v>
       </c>
       <c r="AC3" t="n">
-        <v>4918.509044502445</v>
+        <v>5110.331136422853</v>
       </c>
       <c r="AD3" t="n">
-        <v>3974036.319268191</v>
+        <v>4129023.928975192</v>
       </c>
       <c r="AE3" t="n">
-        <v>5437451.814131842</v>
+        <v>5649512.699303742</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.809185176255289e-07</v>
+        <v>1.315132675524589e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.18333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>4918509.044502445</v>
+        <v>5110331.136422853</v>
       </c>
     </row>
     <row r="4">
@@ -48203,28 +48203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>3307.721173847138</v>
+        <v>3446.546933448667</v>
       </c>
       <c r="AB4" t="n">
-        <v>4525.770036417136</v>
+        <v>4715.717565264226</v>
       </c>
       <c r="AC4" t="n">
-        <v>4093.836896099455</v>
+        <v>4265.656099386401</v>
       </c>
       <c r="AD4" t="n">
-        <v>3307721.173847138</v>
+        <v>3446546.933448668</v>
       </c>
       <c r="AE4" t="n">
-        <v>4525770.036417136</v>
+        <v>4715717.565264226</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.739943274478229e-07</v>
+        <v>1.45408654736299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>34</v>
+        <v>33.62708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>4093836.896099455</v>
+        <v>4265656.099386401</v>
       </c>
     </row>
     <row r="5">
@@ -48309,28 +48309,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>3006.879671441247</v>
+        <v>3137.453958543726</v>
       </c>
       <c r="AB5" t="n">
-        <v>4114.145420634993</v>
+        <v>4292.802920779603</v>
       </c>
       <c r="AC5" t="n">
-        <v>3721.497155928796</v>
+        <v>3883.103835006975</v>
       </c>
       <c r="AD5" t="n">
-        <v>3006879.671441247</v>
+        <v>3137453.958543726</v>
       </c>
       <c r="AE5" t="n">
-        <v>4114145.420634993</v>
+        <v>4292802.920779604</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.022576126831419e-06</v>
+        <v>1.52661483519756e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>33</v>
+        <v>32.03125</v>
       </c>
       <c r="AH5" t="n">
-        <v>3721497.155928797</v>
+        <v>3883103.835006975</v>
       </c>
     </row>
     <row r="6">
@@ -48415,28 +48415,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2815.234684577125</v>
+        <v>2945.723630825032</v>
       </c>
       <c r="AB6" t="n">
-        <v>3851.928294827373</v>
+        <v>4030.469027849785</v>
       </c>
       <c r="AC6" t="n">
-        <v>3484.305664584218</v>
+        <v>3645.806720630459</v>
       </c>
       <c r="AD6" t="n">
-        <v>2815234.684577125</v>
+        <v>2945723.630825032</v>
       </c>
       <c r="AE6" t="n">
-        <v>3851928.294827373</v>
+        <v>4030469.027849785</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.052133985356066e-06</v>
+        <v>1.570742078281376e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>32</v>
+        <v>31.13125</v>
       </c>
       <c r="AH6" t="n">
-        <v>3484305.664584219</v>
+        <v>3645806.720630459</v>
       </c>
     </row>
     <row r="7">
@@ -48521,28 +48521,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2670.244620487922</v>
+        <v>2800.818818081849</v>
       </c>
       <c r="AB7" t="n">
-        <v>3653.546492630329</v>
+        <v>3832.203870305391</v>
       </c>
       <c r="AC7" t="n">
-        <v>3304.857143158261</v>
+        <v>3466.463711455212</v>
       </c>
       <c r="AD7" t="n">
-        <v>2670244.620487922</v>
+        <v>2800818.818081849</v>
       </c>
       <c r="AE7" t="n">
-        <v>3653546.492630329</v>
+        <v>3832203.870305391</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.07241570742883e-06</v>
+        <v>1.601020878056974e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>31</v>
+        <v>30.54166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>3304857.143158261</v>
+        <v>3466463.711455212</v>
       </c>
     </row>
     <row r="8">
@@ -48627,28 +48627,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>2560.303761663875</v>
+        <v>2682.711827613322</v>
       </c>
       <c r="AB8" t="n">
-        <v>3503.120559338882</v>
+        <v>3670.604675433663</v>
       </c>
       <c r="AC8" t="n">
-        <v>3168.787649816032</v>
+        <v>3320.287316936154</v>
       </c>
       <c r="AD8" t="n">
-        <v>2560303.761663875</v>
+        <v>2682711.827613323</v>
       </c>
       <c r="AE8" t="n">
-        <v>3503120.559338882</v>
+        <v>3670604.675433664</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.086722968735973e-06</v>
+        <v>1.622380341464565e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>31</v>
+        <v>30.13958333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>3168787.649816032</v>
+        <v>3320287.316936154</v>
       </c>
     </row>
     <row r="9">
@@ -48733,28 +48733,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>2459.748993883147</v>
+        <v>2590.237850622503</v>
       </c>
       <c r="AB9" t="n">
-        <v>3365.537089898016</v>
+        <v>3544.077700450881</v>
       </c>
       <c r="AC9" t="n">
-        <v>3044.334953598994</v>
+        <v>3205.835898864008</v>
       </c>
       <c r="AD9" t="n">
-        <v>2459748.993883147</v>
+        <v>2590237.850622503</v>
       </c>
       <c r="AE9" t="n">
-        <v>3365537.089898016</v>
+        <v>3544077.700450881</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.096785218446491e-06</v>
+        <v>1.637402381663312e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>30</v>
+        <v>29.8625</v>
       </c>
       <c r="AH9" t="n">
-        <v>3044334.953598994</v>
+        <v>3205835.898864008</v>
       </c>
     </row>
     <row r="10">
@@ -48839,28 +48839,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>2436.126795001006</v>
+        <v>2566.615651740362</v>
       </c>
       <c r="AB10" t="n">
-        <v>3333.216155249605</v>
+        <v>3511.75676580247</v>
       </c>
       <c r="AC10" t="n">
-        <v>3015.098683590713</v>
+        <v>3176.599628855726</v>
       </c>
       <c r="AD10" t="n">
-        <v>2436126.795001007</v>
+        <v>2566615.651740362</v>
       </c>
       <c r="AE10" t="n">
-        <v>3333216.155249605</v>
+        <v>3511756.76580247</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.099772448829301e-06</v>
+        <v>1.641862049847314e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>30</v>
+        <v>29.78541666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>3015098.683590713</v>
+        <v>3176599.628855726</v>
       </c>
     </row>
     <row r="11">
@@ -48945,28 +48945,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>2447.805063382019</v>
+        <v>2578.293920121375</v>
       </c>
       <c r="AB11" t="n">
-        <v>3349.194877257347</v>
+        <v>3527.735487810211</v>
       </c>
       <c r="AC11" t="n">
-        <v>3029.552418796312</v>
+        <v>3191.053364061325</v>
       </c>
       <c r="AD11" t="n">
-        <v>2447805.063382019</v>
+        <v>2578293.920121375</v>
       </c>
       <c r="AE11" t="n">
-        <v>3349194.877257347</v>
+        <v>3527735.487810211</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.099615226177574e-06</v>
+        <v>1.641627330469209e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>30</v>
+        <v>29.7875</v>
       </c>
       <c r="AH11" t="n">
-        <v>3029552.418796312</v>
+        <v>3191053.364061325</v>
       </c>
     </row>
   </sheetData>
